--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.053</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.185</v>
+        <v>23.699</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.49647020210645</v>
+        <v>25.59692867191171</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.49600796507831</v>
+        <v>23.79793026867259</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.49600747835086</v>
+        <v>25.15485775816549</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.49596182670338</v>
+        <v>22.53837882000443</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.49567439563458</v>
+        <v>26.35648474650241</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.49628452370798</v>
+        <v>33.30731506009367</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.49576644453364</v>
+        <v>34.78997095096337</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.49576850197043</v>
+        <v>37.87352573588734</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.49570941306884</v>
+        <v>34.49169140350018</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.49527955247617</v>
+        <v>47.78168488521763</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.49633477419347</v>
+        <v>31.28065419436707</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.49579374468395</v>
+        <v>32.54441714366494</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.49579375468064</v>
+        <v>35.57622027968508</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.49574511728851</v>
+        <v>31.76934907350994</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.49539766542583</v>
+        <v>46.2430049290101</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.49673379836442</v>
+        <v>27.69970386992722</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.49636678841361</v>
+        <v>27.65634705459992</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.49636706180259</v>
+        <v>29.47563400338833</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.49641350831721</v>
+        <v>25.88997694176718</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.49613935701671</v>
+        <v>39.51105465477318</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.49489538585625</v>
+        <v>24.34407240731299</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.49489534954768</v>
+        <v>25.85242525262451</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.4948194533525</v>
+        <v>21.67260822533402</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.49538366936611</v>
+        <v>26.83651494298918</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.4945553627925</v>
+        <v>24.86732636697631</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.4945626230539</v>
+        <v>26.34887723371289</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.49449719515487</v>
+        <v>22.08873338165295</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.49452754725573</v>
+        <v>51.98825663496179</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.49451310482668</v>
+        <v>57.43854348467001</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.49451729576478</v>
+        <v>51.54276890507083</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.49510861980706</v>
+        <v>54.64493129363125</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.49413700784903</v>
+        <v>60.8842372033921</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.49413442495061</v>
+        <v>66.41353801982567</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.49404017816311</v>
+        <v>61.27422810712443</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.49472857796524</v>
+        <v>50.16783521302453</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.49473595126937</v>
+        <v>55.53865932746194</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.49451562613982</v>
+        <v>49.09720769229446</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.49511154830567</v>
+        <v>53.24574849878432</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.49412487289587</v>
+        <v>59.20198261452586</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.49412075784378</v>
+        <v>64.65946123748739</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.49402542486673</v>
+        <v>59.05615815515364</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.49554532316294</v>
+        <v>41.17846793949207</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.49554602156739</v>
+        <v>44.13346747846061</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.495484515384</v>
+        <v>39.06841321528734</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.4959432018413</v>
+        <v>45.08203870831872</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.49531399821515</v>
+        <v>48.42480368870476</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.49531111645069</v>
+        <v>51.42124716258753</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.49534544058304</v>
+        <v>47.4527878412668</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.49614859824087</v>
+        <v>22.64643150098653</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.49558080359092</v>
+        <v>20.06024882037647</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.49557666293405</v>
+        <v>21.70703860782023</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.49552756744302</v>
+        <v>18.12700728842944</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.49526490791067</v>
+        <v>26.1418070397819</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.49608946061677</v>
+        <v>30.47299405000048</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.49508273388865</v>
+        <v>31.34711127954284</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.49508323980413</v>
+        <v>35.02770037596402</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.49501081104525</v>
+        <v>30.22230097186925</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.49434466189698</v>
+        <v>47.33036857528651</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.49590884614238</v>
+        <v>28.47922738290047</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.49525542212463</v>
+        <v>29.21444446899073</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.49525635991744</v>
+        <v>32.814200570048</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.49518633796545</v>
+        <v>27.61443673792002</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.49465741324696</v>
+        <v>45.90603331149144</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.49639981584736</v>
+        <v>25.11004193881567</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.49589560089302</v>
+        <v>24.3986418295609</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.49613563695314</v>
+        <v>26.47653816571431</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.49609193650086</v>
+        <v>21.64473886099998</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.49581210225822</v>
+        <v>38.91668280491628</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.49405518211131</v>
+        <v>23.90788788068738</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.49405695014922</v>
+        <v>26.0987624061545</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.49394425300453</v>
+        <v>20.97934600126067</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.4946330027947</v>
+        <v>27.90556836634167</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.49396899468162</v>
+        <v>25.92063080149165</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.49401700149702</v>
+        <v>28.07201444317118</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.49392824917889</v>
+        <v>23.16344189811513</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.49359660950474</v>
+        <v>51.34976346293335</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.49381007768592</v>
+        <v>57.92114780160306</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.49370469452837</v>
+        <v>49.63195735422474</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.49440169934789</v>
+        <v>55.59004292604753</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.49318198156065</v>
+        <v>62.05766353159256</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.49318603769397</v>
+        <v>68.69975154096885</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.49298863810398</v>
+        <v>61.52248843685361</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.49386203119861</v>
+        <v>49.67659441499771</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.49388642079141</v>
+        <v>56.1850875199449</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.49386937728019</v>
+        <v>47.3682969800301</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.49478945430083</v>
+        <v>54.11938465585732</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.49368654750231</v>
+        <v>60.30598573497896</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.49391251367968</v>
+        <v>66.89052801151146</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.49393461130072</v>
+        <v>59.26160293469454</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.49508836038012</v>
+        <v>40.22047029424648</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.49508159247347</v>
+        <v>43.87550946801645</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.49505634509913</v>
+        <v>37.39855049864493</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.49551516602807</v>
+        <v>45.87537213534506</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.49472400737</v>
+        <v>49.30444230335104</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.49472513747897</v>
+        <v>53.03365189308026</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.49464681623702</v>
+        <v>47.82552715066167</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.49612596539804</v>
+        <v>22.64643150098653</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.49557007031066</v>
+        <v>20.06024882037647</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.49557620732514</v>
+        <v>21.70703860782023</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.49553370183382</v>
+        <v>18.12700728842944</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.49514848662634</v>
+        <v>26.1418070397819</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.49591454924776</v>
+        <v>30.47299405000048</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.49552037214107</v>
+        <v>31.34711127954284</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.49558003590085</v>
+        <v>35.02770037596402</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.49553799610584</v>
+        <v>30.22230097186925</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.49501127583916</v>
+        <v>47.33036857528651</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.49592774734356</v>
+        <v>28.47922738290047</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.49525503462765</v>
+        <v>29.21444446899073</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.49525448912548</v>
+        <v>32.814200570048</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.49518496006078</v>
+        <v>27.61443673792002</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.4948753310495</v>
+        <v>45.90603331149144</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.49652343665955</v>
+        <v>25.11004193881567</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.49610336619082</v>
+        <v>24.3986418295609</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.49610781760751</v>
+        <v>26.47653816571431</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.49607530012163</v>
+        <v>21.64473886099998</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.49577728527439</v>
+        <v>38.91668280491628</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.49429350002271</v>
+        <v>23.90788788068738</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.49404692422061</v>
+        <v>26.0987624061545</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.49398269354202</v>
+        <v>20.97934600126067</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.4947291475003</v>
+        <v>27.90556836634167</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.49360677570666</v>
+        <v>25.92063080149165</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.49356732459467</v>
+        <v>28.07201444317118</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.49345824675737</v>
+        <v>23.16344189811513</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.49351293159334</v>
+        <v>51.34976346293335</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.49351307119676</v>
+        <v>57.92114780160306</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.49340706793341</v>
+        <v>49.63195735422474</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.49415062280638</v>
+        <v>55.59004292604753</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.49293878710652</v>
+        <v>62.05766353159256</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.49295226868057</v>
+        <v>68.69975154096885</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.49284651778063</v>
+        <v>61.52248843685361</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.493785023493</v>
+        <v>49.67659441499771</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.49377859432196</v>
+        <v>56.1850875199449</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.4937015302803</v>
+        <v>47.3682969800301</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.49462972437921</v>
+        <v>54.11938465585732</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.49351764577532</v>
+        <v>60.30598573497896</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.49351169993498</v>
+        <v>66.89052801151146</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.49340198120242</v>
+        <v>59.26160293469454</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.49491692213944</v>
+        <v>40.22047029424648</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.49492453545374</v>
+        <v>43.87550946801645</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.49484673373288</v>
+        <v>37.39855049864493</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.49545255468602</v>
+        <v>45.87537213534506</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.49463646440359</v>
+        <v>49.30444230335104</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.4946248986501</v>
+        <v>53.03365189308026</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.49455970892206</v>
+        <v>47.82552715066167</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.49655505973241</v>
+        <v>24.09105097871828</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.49612209441825</v>
+        <v>21.86779102927483</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.49612191543748</v>
+        <v>23.30298542179376</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.49607741027316</v>
+        <v>20.2189840917621</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.49562039034651</v>
+        <v>25.60104590643307</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.49632101771497</v>
+        <v>30.70468475638731</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.49570900950021</v>
+        <v>31.57756858275622</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.49570965370413</v>
+        <v>34.80420797685709</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.49565143065796</v>
+        <v>30.6310733136343</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.4954103533962</v>
+        <v>46.95590801600343</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.49636076617685</v>
+        <v>28.61796742561114</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.4958639554617</v>
+        <v>29.28313666089492</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.49586680267429</v>
+        <v>32.45098564863001</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.49580919817277</v>
+        <v>27.85150648096508</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.49544283432925</v>
+        <v>45.38246649147233</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.49676292125447</v>
+        <v>26.29447651362881</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.49640690608296</v>
+        <v>25.90369163944391</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.49647207110813</v>
+        <v>27.80385170671186</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.49643686482579</v>
+        <v>23.71762560988995</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.49612030637567</v>
+        <v>39.20833097500668</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.49493669744055</v>
+        <v>23.28967832215988</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.49493549676567</v>
+        <v>24.95122351140942</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.49484199237822</v>
+        <v>20.32253366653627</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.49547321439509</v>
+        <v>26.51771478041304</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.49471777576105</v>
+        <v>24.3343218353749</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.49471929208776</v>
+        <v>25.97412491668832</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.49464690739531</v>
+        <v>21.35711137204535</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.49463686611953</v>
+        <v>50.89264402197884</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.49463958830303</v>
+        <v>56.678505117532</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.49451831478616</v>
+        <v>49.89815049294837</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.49517625822291</v>
+        <v>54.47183577076253</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.49427172004608</v>
+        <v>60.618757835336</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.49431725458965</v>
+        <v>66.48685571565139</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.49424148697696</v>
+        <v>60.60506900958043</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.49474656974095</v>
+        <v>49.02911608843714</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.49481093635099</v>
+        <v>54.7372323302874</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.49473839477885</v>
+        <v>47.39546806125108</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.49535273836891</v>
+        <v>53.02840133586565</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.49448706848273</v>
+        <v>58.88355517526264</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.49449335306856</v>
+        <v>64.68235914122062</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.49433287615402</v>
+        <v>58.32732579694389</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.49558276230056</v>
+        <v>40.71877973002029</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.49559905170392</v>
+        <v>43.88792931905538</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.49554367524078</v>
+        <v>38.30489904968555</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.49594743637966</v>
+        <v>45.38533482633147</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.49532281408509</v>
+        <v>48.746541885771</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.49532370169479</v>
+        <v>51.97284180047263</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.49524094659226</v>
+        <v>47.60680590576177</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.49652666214994</v>
+        <v>25.2779709416746</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.49609023249667</v>
+        <v>23.40720883424888</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.4960909983751</v>
+        <v>24.76842847041586</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.49604700341687</v>
+        <v>22.03456425914436</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.49561178972245</v>
+        <v>27.05560313642955</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.49627833331106</v>
+        <v>32.89624261406386</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.49575317147615</v>
+        <v>34.261461514567</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.49575422568006</v>
+        <v>37.35140102901335</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.49569879265986</v>
+        <v>33.89365356852576</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.49519232858476</v>
+        <v>48.52285932257768</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.49636604883277</v>
+        <v>30.93090506291045</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.49587745340696</v>
+        <v>32.09086390307282</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.4960056365503</v>
+        <v>35.13104037151095</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.49598486185969</v>
+        <v>31.25631957843596</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.49563366001717</v>
+        <v>47.04703556034922</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.49676748679462</v>
+        <v>27.61342401111658</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.49640532338099</v>
+        <v>27.54168875052156</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.49640530010918</v>
+        <v>29.35612307233595</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.49636848433298</v>
+        <v>25.75231213677502</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.49609553837404</v>
+        <v>40.16435886077286</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.49509111536284</v>
+        <v>25.21615017450109</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.49507491900835</v>
+        <v>26.75103182143991</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.49500170304714</v>
+        <v>22.68271732648539</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.49546561384638</v>
+        <v>27.50213163172526</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.49469516017124</v>
+        <v>25.69945856664483</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.49469122847496</v>
+        <v>27.20932291755712</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.4946147850224</v>
+        <v>23.05190523737843</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.49484248014219</v>
+        <v>52.85708845207516</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.49488895436086</v>
+        <v>58.32909612537362</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.49483889478409</v>
+        <v>52.6036747398385</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.49543896083417</v>
+        <v>55.14402365030435</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.49456237177199</v>
+        <v>61.44907403206373</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.49456888534677</v>
+        <v>66.98940947187911</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.49449311523094</v>
+        <v>61.98320456656759</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.49491454628818</v>
+        <v>51.11207913151374</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.49491568067211</v>
+        <v>56.51157919124597</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.49480259683376</v>
+        <v>50.25325796890625</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.49534566326156</v>
+        <v>53.81725734759416</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.49450046016792</v>
+        <v>59.85340746954191</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.49455755650291</v>
+        <v>65.32898400270017</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.49448476277728</v>
+        <v>59.87211132229626</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.49568623015616</v>
+        <v>41.97777566330912</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.49566053045814</v>
+        <v>44.96980617899223</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.49561495245584</v>
+        <v>40.07291740151511</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.49600882152638</v>
+        <v>45.63498551453714</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.49540905415741</v>
+        <v>49.09759555630058</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.49539537465239</v>
+        <v>52.12973973009585</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.49533720136436</v>
+        <v>48.30524576448701</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.49484688962985</v>
+        <v>22.20524716213968</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.4938402159647</v>
+        <v>19.61256072028681</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.4938409083553</v>
+        <v>21.00226950837415</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.49372022099708</v>
+        <v>17.70330079207334</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.49322228510528</v>
+        <v>26.16892925236329</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.49472826174431</v>
+        <v>25.5248859930509</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.49380384909165</v>
+        <v>25.12938494636512</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.49379190956119</v>
+        <v>28.0467148523015</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.49369997009228</v>
+        <v>23.33604876397158</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.49194478676404</v>
+        <v>41.95098188639107</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.49472345473326</v>
+        <v>23.95733939471992</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.49363342651564</v>
+        <v>23.46030329829891</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.49362857348993</v>
+        <v>26.31139887906971</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.49344044922091</v>
+        <v>21.31354142112063</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.49264692206435</v>
+        <v>40.96394424697102</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.4955530119005</v>
+        <v>22.94343818883778</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.49477192046024</v>
+        <v>21.69080034791715</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.49477281838601</v>
+        <v>23.36683488466253</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.49467043989545</v>
+        <v>18.83158218309719</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.49430288200724</v>
+        <v>36.69576243545227</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.49158238266288</v>
+        <v>24.1605576373255</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.49163679323945</v>
+        <v>26.07434293733707</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.49149686633421</v>
+        <v>21.70005565089891</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.49246539416324</v>
+        <v>27.94276775215558</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.49102110493395</v>
+        <v>26.18510880746392</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.49102379836428</v>
+        <v>28.05293234887582</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.49086311031406</v>
+        <v>23.95097070553409</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.49016565474977</v>
+        <v>44.57482888555377</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.49016413501736</v>
+        <v>50.07089073787181</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.48992328195532</v>
+        <v>42.48920054076816</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.49187023061286</v>
+        <v>49.15062234675965</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.48982161843701</v>
+        <v>53.91292904623608</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.48991988442477</v>
+        <v>59.4597387497448</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.48974375807712</v>
+        <v>52.9172166293187</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.49120165063911</v>
+        <v>43.40435018781987</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.49128193621192</v>
+        <v>48.85727385573332</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.49113495507009</v>
+        <v>40.86038745655306</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.49268094861796</v>
+        <v>48.07365117027999</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.49086266455252</v>
+        <v>52.62662532723434</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.49086763246874</v>
+        <v>58.13382883814403</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.49050595842107</v>
+        <v>51.2369595069964</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.49273521934376</v>
+        <v>37.52553216395383</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.49288061185158</v>
+        <v>40.66303088545891</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.49274852572495</v>
+        <v>35.05421125679394</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.49368777743445</v>
+        <v>43.13317484235043</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.49226168495659</v>
+        <v>45.96288666827245</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.49226285405986</v>
+        <v>49.18262312861195</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.49209098215729</v>
+        <v>44.75121816359827</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.49490676732825</v>
+        <v>22.5351285834662</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.49391642459274</v>
+        <v>20.00376070799053</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.49392859264929</v>
+        <v>21.39928284267371</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.49382855575519</v>
+        <v>18.21492502427839</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.49332707173906</v>
+        <v>25.91476946269442</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.49473980407132</v>
+        <v>26.04826571553847</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.49371072585928</v>
+        <v>25.77466861278757</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.49370741716535</v>
+        <v>28.69451412391829</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.49360211422933</v>
+        <v>24.06916186007918</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.49302858926796</v>
+        <v>41.7678709164447</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.49482965666884</v>
+        <v>24.42249262920274</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.49383516287556</v>
+        <v>24.03721947457639</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.49330164773821</v>
+        <v>26.88753238095243</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.4931795585745</v>
+        <v>21.97044393861609</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.492861725657</v>
+        <v>40.75457560212366</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.49546087252807</v>
+        <v>23.21646796052794</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.49467197819154</v>
+        <v>22.03088584397577</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.49467609706243</v>
+        <v>23.716787784269</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.49459182860087</v>
+        <v>19.217026130965</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.49417262532257</v>
+        <v>36.43199082371701</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.49223033731413</v>
+        <v>23.81040641745098</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.4921873174372</v>
+        <v>25.71284544651667</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.49207989780023</v>
+        <v>21.31933121997364</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.49352787276343</v>
+        <v>27.73963240921291</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.49208249406149</v>
+        <v>25.8971240091915</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.49207444685048</v>
+        <v>27.75402117626351</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.49188474556659</v>
+        <v>23.64214855776934</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.49138011119524</v>
+        <v>44.36296851224766</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.49130247468264</v>
+        <v>49.87843264046062</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.49113934545266</v>
+        <v>42.21910925856188</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.4916390118417</v>
+        <v>49.24721767809758</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.48954576276788</v>
+        <v>54.05357298180937</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.48954571445131</v>
+        <v>59.63222786132843</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.4893328614179</v>
+        <v>53.05697781091101</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.49057725802776</v>
+        <v>43.1631315497533</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.49058127607227</v>
+        <v>48.62856178022661</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.49038900599047</v>
+        <v>40.5462391925215</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.49201945433101</v>
+        <v>48.13977940285032</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.49013459134848</v>
+        <v>52.73157874469946</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.49012224619785</v>
+        <v>58.26448186572131</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.48992932135386</v>
+        <v>51.32795538486305</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.49322318601539</v>
+        <v>37.19984621016129</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.49322704674342</v>
+        <v>40.32935992068189</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.49310843192289</v>
+        <v>34.60770856604198</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.49406395203937</v>
+        <v>42.9290374273489</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.49282670246523</v>
+        <v>45.71900054646136</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.49279022671152</v>
+        <v>48.93433582154504</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.49263042907034</v>
+        <v>44.40455129009629</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.49620888959367</v>
+        <v>22.41796011147644</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.49569058494375</v>
+        <v>19.66938031292185</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.49568582647471</v>
+        <v>21.38236987479975</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.49563332382052</v>
+        <v>17.63566255520967</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.49517474562217</v>
+        <v>26.9104762832611</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.49596318990696</v>
+        <v>29.1273296212824</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.49533633267352</v>
+        <v>29.79553962873447</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.4953394601097</v>
+        <v>33.55476171047651</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.49527114581991</v>
+        <v>28.41091854998929</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.49469757080039</v>
+        <v>53.41154646351224</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.49593347502554</v>
+        <v>26.79670729822882</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.49529539512929</v>
+        <v>27.25927424734048</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.49532945224801</v>
+        <v>30.94203608214916</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.49527018171934</v>
+        <v>25.32593186861446</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.49490572155033</v>
+        <v>51.63124601534614</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.49654592804846</v>
+        <v>24.3726636764853</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.49613912254755</v>
+        <v>23.63575906844734</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.49613559461368</v>
+        <v>25.83457227896904</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.4960945172746</v>
+        <v>20.78188075879273</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.49575815778686</v>
+        <v>42.49390483607728</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.49409432756654</v>
+        <v>24.67498507638264</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.49408750296549</v>
+        <v>26.8786562355556</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.49399453318246</v>
+        <v>21.7378969284837</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.49487923858383</v>
+        <v>28.24214708824908</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.4938261808664</v>
+        <v>26.17907946631622</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.49385482813054</v>
+        <v>28.34060406878163</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.49374765035992</v>
+        <v>23.2956487164699</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.49386335631194</v>
+        <v>58.82604770920985</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.49382642940174</v>
+        <v>65.8519717239879</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.49375910412237</v>
+        <v>58.2890111171363</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.49458566949357</v>
+        <v>61.71083056618194</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.49365236592018</v>
+        <v>69.57148112045857</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.49361630525928</v>
+        <v>76.6698734439784</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.49353610897673</v>
+        <v>70.10259970528629</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.49378951135463</v>
+        <v>56.71083429032599</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.49379156420803</v>
+        <v>63.65676669773232</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.49370178868459</v>
+        <v>55.44845689786731</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.49453466652369</v>
+        <v>60.02130449203474</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.493376588966</v>
+        <v>67.54139990888535</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.49333683311474</v>
+        <v>74.56974424404324</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.49318747306131</v>
+        <v>67.45596536075907</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.49499327064663</v>
+        <v>44.59133168897174</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.49499726708672</v>
+        <v>48.47429603524776</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.49494045871189</v>
+        <v>42.21988351396476</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.49547796004876</v>
+        <v>49.68877371521477</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.49478421761467</v>
+        <v>53.9716728265347</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.49480487702662</v>
+        <v>57.93814178700343</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.49474697618987</v>
+        <v>53.04914449871643</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.49551300507935</v>
+        <v>22.84931752633364</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.49468520547112</v>
+        <v>20.34030429779757</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.49468779368373</v>
+        <v>21.8656317518317</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.49460885335635</v>
+        <v>18.55801953636513</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.49402867549895</v>
+        <v>26.6858579375988</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.49512933211447</v>
+        <v>28.00512729173515</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.49422521701998</v>
+        <v>28.26560125400534</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.49423649919148</v>
+        <v>31.51605479821245</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.49414165654435</v>
+        <v>26.88129696745562</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.49333622119152</v>
+        <v>45.05751405241978</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.4952579468484</v>
+        <v>26.19396612628502</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.49436137644727</v>
+        <v>26.32355972173938</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.4941904292262</v>
+        <v>29.49984082847106</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.49409219643479</v>
+        <v>24.52497588241645</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.49372616669188</v>
+        <v>43.88630745367435</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.495898746309</v>
+        <v>23.99216345311641</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.49525042529913</v>
+        <v>23.02863564370987</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.49525311074347</v>
+        <v>24.89891080127458</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.49518463027089</v>
+        <v>20.27175854349886</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.49476413610861</v>
+        <v>38.26573050985547</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.49279113279908</v>
+        <v>24.67774548924437</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.49278844610649</v>
+        <v>26.73613065429698</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.49266502115647</v>
+        <v>22.15588210651396</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.49378282605812</v>
+        <v>28.44034921436477</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.49242046304633</v>
+        <v>26.67667446372996</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.49242307747316</v>
+        <v>28.68976041277461</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.49227866385023</v>
+        <v>24.35157203807761</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.49184044675192</v>
+        <v>48.45313068906061</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.49179681257537</v>
+        <v>54.47528179540405</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.49163448374521</v>
+        <v>46.70602350970914</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.49330345166295</v>
+        <v>52.80296726411325</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.49178462809207</v>
+        <v>58.49718693617633</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.49178326414844</v>
+        <v>64.58186193808044</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.49160548681486</v>
+        <v>57.89001488505207</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.49249509039519</v>
+        <v>47.0721562756864</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.49244965399421</v>
+        <v>53.04202004000082</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.49230285027022</v>
+        <v>44.80348568506398</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.49345547370221</v>
+        <v>51.55580467740892</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.49215274517303</v>
+        <v>57.01086904509215</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.49212652599609</v>
+        <v>63.04760068334698</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.49200036170419</v>
+        <v>55.95251839952415</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.49391893278863</v>
+        <v>39.44316581928724</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.49392437765794</v>
+        <v>42.85151203588082</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.49382620261368</v>
+        <v>36.92792249756277</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.49459216350633</v>
+        <v>44.95814097574226</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.49350394283081</v>
+        <v>48.21201485556176</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.49348173378185</v>
+        <v>51.70261401003319</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.49333935571449</v>
+        <v>47.00336357706267</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.49561937298843</v>
+        <v>22.38548194190959</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.49486691500043</v>
+        <v>19.7955841212105</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.49486822495206</v>
+        <v>21.31116952702916</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.4947873996303</v>
+        <v>17.88675462032053</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.49460696831673</v>
+        <v>25.56893571990462</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.49529240533148</v>
+        <v>28.82718475899546</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.49443095656422</v>
+        <v>29.2405999290353</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.49443623879004</v>
+        <v>32.59443592211836</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.49434877525019</v>
+        <v>27.88474773415565</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.49399596304934</v>
+        <v>44.07035972671463</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.49556184534905</v>
+        <v>27.04822783066869</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.49476780901814</v>
+        <v>27.34812222594812</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.49476379312413</v>
+        <v>30.62412415818665</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.49468301880192</v>
+        <v>25.57674601916262</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.49424291557851</v>
+        <v>42.89441792379968</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.49619467975437</v>
+        <v>24.26817841833998</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.495672604689</v>
+        <v>23.32347424688245</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.49538710071221</v>
+        <v>25.20651280264668</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.49532457160652</v>
+        <v>20.50242430282624</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.4951398902814</v>
+        <v>37.19267657439083</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.49272241543652</v>
+        <v>23.30096684119583</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.49272350887862</v>
+        <v>25.35211050116322</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.49259548391728</v>
+        <v>20.49393633582706</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.49377928510404</v>
+        <v>27.3326656707984</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.4924201915962</v>
+        <v>25.31200852987696</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.49244674735556</v>
+        <v>27.31728371711744</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.49231089513209</v>
+        <v>22.69443638290038</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.49192303488969</v>
+        <v>47.28961607974601</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.49205595092572</v>
+        <v>53.35600145969028</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.49191063451623</v>
+        <v>45.20279665810288</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.49318061806721</v>
+        <v>52.0283268059938</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.4916096601746</v>
+        <v>57.60661880239745</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.49161382665764</v>
+        <v>63.74029786778706</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.49143801568118</v>
+        <v>56.70286258244824</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.49253397348785</v>
+        <v>45.90941153406105</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.4929170144699</v>
+        <v>51.91873378251165</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.49288671628683</v>
+        <v>43.30018077216588</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.49406591583726</v>
+        <v>50.75749597172288</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.49275396485287</v>
+        <v>56.0940998283958</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.49263710887861</v>
+        <v>62.17514796542542</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.49251061513706</v>
+        <v>54.73915955542813</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.4940189626246</v>
+        <v>38.11752247036677</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.49402050927929</v>
+        <v>41.49209247171466</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.49392515085441</v>
+        <v>35.26006642822114</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.49476482847173</v>
+        <v>43.90843659251834</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.49373157870652</v>
+        <v>46.89737914974428</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.49374786586509</v>
+        <v>50.35066242914548</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.49367678802128</v>
+        <v>45.33446605145234</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.49596770277283</v>
+        <v>22.30731567562428</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.49535175422623</v>
+        <v>19.68503563931014</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.4953219269829</v>
+        <v>21.26924745912969</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.49527856243217</v>
+        <v>17.68573329821727</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.49489843068502</v>
+        <v>25.84210193480668</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.49584721584682</v>
+        <v>29.06997577001189</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.49492013312377</v>
+        <v>29.56799425095407</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.49492346531461</v>
+        <v>33.08320568468537</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.49485641368046</v>
+        <v>28.25848262288066</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.49460884820911</v>
+        <v>45.60293022606744</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.49579313063344</v>
+        <v>27.21382153268034</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.49509963102776</v>
+        <v>27.59100173478199</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.49510916356631</v>
+        <v>31.02954290692701</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.49503726482699</v>
+        <v>25.83846445127494</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.49476623114483</v>
+        <v>44.29329290249785</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.49638687458464</v>
+        <v>24.40029548181697</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.49590351165315</v>
+        <v>23.49486920805128</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.49596579311742</v>
+        <v>25.47129235645139</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.49593138719471</v>
+        <v>20.67630119713797</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.49554824050161</v>
+        <v>38.01013473484945</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.49417802111231</v>
+        <v>23.60213450279873</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.49384489987366</v>
+        <v>25.73562728612117</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.49375753347301</v>
+        <v>20.71035220742804</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.49496098239671</v>
+        <v>27.63281017948709</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.49398497174091</v>
+        <v>25.6486734229125</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.49399080222868</v>
+        <v>27.74159808271105</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.4937641808903</v>
+        <v>22.94914486633154</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.49372898329065</v>
+        <v>49.15330697020737</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.49375389859191</v>
+        <v>55.45004742753444</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.49377607346455</v>
+        <v>47.23675117085651</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.49459053922088</v>
+        <v>53.49952216024886</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.4936460723021</v>
+        <v>59.40307461189057</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.49237594506705</v>
+        <v>65.75833246967247</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.49226035777108</v>
+        <v>58.63284895239751</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.49321962395698</v>
+        <v>47.61031671141632</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.4932119232888</v>
+        <v>53.85090194014452</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.49320355876493</v>
+        <v>45.14143382421223</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.49405963376387</v>
+        <v>52.12835645841438</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.4927677620208</v>
+        <v>57.76733821471107</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.4927685695553</v>
+        <v>64.07079221222327</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.4926428991781</v>
+        <v>56.52204891638482</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.49476743711853</v>
+        <v>39.10574850565378</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.49477864055524</v>
+        <v>42.62207556855705</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.49469479405276</v>
+        <v>36.30333175258578</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.49536517424856</v>
+        <v>44.89827230481011</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.49461763886937</v>
+        <v>48.09530737535157</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.49459273759881</v>
+        <v>51.68816009326163</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.49413483425399</v>
+        <v>46.6215786971886</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.49604859679166</v>
+        <v>22.83395708716739</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.4954423775979</v>
+        <v>20.3384683441163</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.49544116592759</v>
+        <v>21.86263111375272</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.49538226946208</v>
+        <v>18.48859650309617</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.49511354438532</v>
+        <v>25.90187005698754</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.49587161054478</v>
+        <v>29.72908088089074</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.4952135024395</v>
+        <v>30.31313676324182</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.49521510537472</v>
+        <v>33.70962856594068</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.49514831641707</v>
+        <v>29.04572951687903</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.49457254122535</v>
+        <v>44.7426008121406</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.49606678367476</v>
+        <v>27.93677927528605</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.49545437579329</v>
+        <v>28.40673071182761</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.49545194429732</v>
+        <v>31.72398519431352</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.49538751141694</v>
+        <v>26.71886110745498</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.49495813799754</v>
+        <v>43.50660746583193</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.49644550768627</v>
+        <v>25.2275880974775</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.49598704420949</v>
+        <v>24.45987387085238</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.4960693836821</v>
+        <v>26.3744094870557</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.49602531272201</v>
+        <v>21.80468491416014</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.49567524445888</v>
+        <v>37.44550095372534</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.4942311555233</v>
+        <v>23.70145858246768</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.49423554942373</v>
+        <v>25.75552468951116</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.49409575708047</v>
+        <v>20.93595278449016</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.49494450887538</v>
+        <v>27.72961052040299</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.49397847617227</v>
+        <v>25.79600896412866</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.49403244893235</v>
+        <v>27.81422542246669</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.49396056404254</v>
+        <v>23.23430108263065</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.49389096147446</v>
+        <v>48.13287245564143</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.49416061013653</v>
+        <v>54.22675643598862</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.49408402706721</v>
+        <v>46.19553281782201</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.49479226455773</v>
+        <v>52.67264950275985</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.49377913116403</v>
+        <v>58.40883629758696</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.493788090939</v>
+        <v>64.57564106084303</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.49362435242305</v>
+        <v>57.66350532134282</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.49386008424782</v>
+        <v>46.68195545174083</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.49386188916535</v>
+        <v>52.71687593140715</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.49376316677717</v>
+        <v>44.21449868302337</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.4946271553225</v>
+        <v>51.35449910368112</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.49353982909819</v>
+        <v>56.83983472225678</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.4935077847747</v>
+        <v>62.95192972811273</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.49337067335865</v>
+        <v>55.63710988098407</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.49500969928576</v>
+        <v>38.45014968694517</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.49501571736308</v>
+        <v>41.83438945909702</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.49495021159776</v>
+        <v>35.64701360474292</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.49547126323083</v>
+        <v>44.0304948013264</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.49499266771518</v>
+        <v>47.04733511986134</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.49499832258473</v>
+        <v>50.50732814372383</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.49493599525294</v>
+        <v>45.52075042324934</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.49596835736979</v>
+        <v>22.4152352406215</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.49535874677869</v>
+        <v>19.86050460513935</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.49534825008924</v>
+        <v>21.32183536152087</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.49527887894545</v>
+        <v>17.92866931869924</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.49452899893507</v>
+        <v>25.60525505714257</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.49556408424328</v>
+        <v>27.9383325915705</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.49478824022313</v>
+        <v>28.06466572181932</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.49478836495411</v>
+        <v>31.28056856729619</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.49470748440834</v>
+        <v>26.53257003453718</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.49395907423094</v>
+        <v>43.08900359501672</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.49570149556781</v>
+        <v>26.27580807343734</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.49497768405103</v>
+        <v>26.30477379035147</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.49498176081017</v>
+        <v>29.44537450323381</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.49490899657295</v>
+        <v>24.38357572198362</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.49431376573399</v>
+        <v>41.95249947741273</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.49642025485156</v>
+        <v>24.34786237231894</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.49595386863173</v>
+        <v>23.3533552883786</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.49595369928804</v>
+        <v>25.16061458717417</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.49589874264795</v>
+        <v>20.60204980302809</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.49559814209094</v>
+        <v>36.59024655166869</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.49360773284769</v>
+        <v>23.39404912253375</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.49361752692961</v>
+        <v>25.38960659084609</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.49378412747092</v>
+        <v>20.66007265670707</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.49466088785828</v>
+        <v>27.4728828833032</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.49361591420063</v>
+        <v>25.53899664583924</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.49360779830098</v>
+        <v>27.49828821942942</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.49348215811987</v>
+        <v>23.03074880841793</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.49340515651668</v>
+        <v>46.03463815227836</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.49340546697323</v>
+        <v>51.85324398584117</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.49326750661775</v>
+        <v>43.90739620854754</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.49407228671114</v>
+        <v>50.68974595005881</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.4926778436376</v>
+        <v>55.88900209166634</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.49271162572424</v>
+        <v>61.76965828364201</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.49256359372915</v>
+        <v>54.92553707959031</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.49364156495201</v>
+        <v>44.69434815747388</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.49359541761062</v>
+        <v>50.46066333422836</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.49353043932194</v>
+        <v>42.07225277587006</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.49456893176667</v>
+        <v>49.45902474556515</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.4936757307226</v>
+        <v>54.42068690681803</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.49363976929556</v>
+        <v>60.25243231829986</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.49356463966731</v>
+        <v>53.0315584747576</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.49482257022092</v>
+        <v>37.39854359576211</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.4948276256808</v>
+        <v>40.64947233865745</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.49475606320775</v>
+        <v>34.62475073194478</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.4952632235036</v>
+        <v>43.13259056357789</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.4943963778832</v>
+        <v>45.93902915037047</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.49438188772004</v>
+        <v>49.26929915647275</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.4942897601753</v>
+        <v>44.43373738115964</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.49608893420315</v>
+        <v>22.60738437213509</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.49553451130088</v>
+        <v>19.89210030211993</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.49552604320744</v>
+        <v>21.59618792044799</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.49547620696301</v>
+        <v>17.93212298771866</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.49512821165997</v>
+        <v>26.07017928616224</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.49605538478371</v>
+        <v>29.03545105405832</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.4954582896044</v>
+        <v>29.69484046755295</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.49537724347934</v>
+        <v>33.42972056665615</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.49531469478717</v>
+        <v>28.25517039296735</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.49489699484562</v>
+        <v>52.48915261818301</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.49583740824842</v>
+        <v>26.6419337012589</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.49514305523192</v>
+        <v>27.07978008027923</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.49513841276285</v>
+        <v>30.73625783993502</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.49506625421055</v>
+        <v>25.08171652368769</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.494615282421</v>
+        <v>50.63137206518395</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.49652279431508</v>
+        <v>24.16890614174537</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.49609539556658</v>
+        <v>23.39030386757124</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.49609347713865</v>
+        <v>25.58106612214014</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.49605574141155</v>
+        <v>20.49204740598167</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.4957530708842</v>
+        <v>41.66905640354693</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.49409913351347</v>
+        <v>23.62881724097385</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.49408987962936</v>
+        <v>25.79893625567352</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.49414220999828</v>
+        <v>20.50848534310182</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.49468484229451</v>
+        <v>27.43004609680034</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.49360802447902</v>
+        <v>25.16946159768666</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.49361096912774</v>
+        <v>27.29656906869986</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.493502527756</v>
+        <v>22.10914886699663</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.49350686659855</v>
+        <v>57.74132157417979</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.49351934739855</v>
+        <v>64.7324998392171</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.49340843552737</v>
+        <v>56.95837124530196</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.49426859191977</v>
+        <v>60.99842140233962</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.49304147102764</v>
+        <v>68.74671781222122</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.49302021312197</v>
+        <v>75.82024590665002</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.49286198721986</v>
+        <v>69.07954143638074</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.49388435173459</v>
+        <v>55.53097602519694</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.49388087458342</v>
+        <v>62.43453655587319</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.49376249269406</v>
+        <v>54.00009820518326</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.49459096591265</v>
+        <v>59.22501369126229</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.49342787624824</v>
+        <v>66.61509322258642</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.49346230017105</v>
+        <v>73.61120846372705</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.49332567189996</v>
+        <v>66.30874371771873</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.49497986176453</v>
+        <v>43.57958321535034</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.49497130952851</v>
+        <v>47.41023640000746</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.49490781859567</v>
+        <v>40.96336832602777</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.4954809471675</v>
+        <v>48.99294270241393</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.49468675146895</v>
+        <v>53.12085075747495</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.49468594676487</v>
+        <v>57.03804604275415</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.49459341306914</v>
+        <v>51.98510094661906</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.49626911982706</v>
+        <v>22.68690633216694</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.49572841022116</v>
+        <v>20.20424683179656</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.49573279499021</v>
+        <v>21.71090102465036</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.49556281437541</v>
+        <v>18.29745715097918</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.49519821365646</v>
+        <v>25.51532371947576</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.49588998565424</v>
+        <v>30.31897322302</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.49522356801781</v>
+        <v>31.04701259252508</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.49522464002607</v>
+        <v>34.48576298478208</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.49514732061293</v>
+        <v>29.87895855484182</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.49483852669157</v>
+        <v>44.5086571582227</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.49604084670766</v>
+        <v>28.55255347547025</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.4954332105233</v>
+        <v>29.17237568183164</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.49542984623903</v>
+        <v>32.53461529150823</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.49536913628499</v>
+        <v>27.57913219361667</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.49517065761108</v>
+        <v>43.20043372266251</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.49657327249782</v>
+        <v>25.55100669288702</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.49614953870171</v>
+        <v>24.8577796514296</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.49615074779805</v>
+        <v>26.77141881191659</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.49610722373862</v>
+        <v>22.26258418569535</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.49573346841233</v>
+        <v>37.10982564626902</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.49440783343852</v>
+        <v>23.25022227646361</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.49438326673575</v>
+        <v>25.26838344354388</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.49429583209777</v>
+        <v>20.36448870576758</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.49504110058294</v>
+        <v>27.22695841397049</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.49410073852428</v>
+        <v>25.20741636316337</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.49410205323596</v>
+        <v>27.19238499795134</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.49396386030331</v>
+        <v>22.49871903454846</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.49386873891109</v>
+        <v>47.88231156553782</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.49387952444464</v>
+        <v>53.92651542034385</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.49379412956919</v>
+        <v>45.91098993546719</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.49452091315414</v>
+        <v>52.31192255906937</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.49343065571972</v>
+        <v>57.99942431868851</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.49350662135626</v>
+        <v>64.11362474474986</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.49339730549346</v>
+        <v>57.17569726282733</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.49406843837243</v>
+        <v>46.34632483380987</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.49406246796453</v>
+        <v>52.32891727527304</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.49397568086747</v>
+        <v>43.83511117792495</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.49455346533438</v>
+        <v>50.93345206546861</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.49344856230249</v>
+        <v>56.35811281623347</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.49330345312989</v>
+        <v>62.41466844741734</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.49318585712301</v>
+        <v>55.06708493161023</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.49512632631719</v>
+        <v>38.05135888244869</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.49512461350777</v>
+        <v>41.38563526750592</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.49505638528005</v>
+        <v>35.17298873463142</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.49557293653242</v>
+        <v>43.5929902818379</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.4948179642931</v>
+        <v>46.5084111954522</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.49482448934888</v>
+        <v>49.91001963034608</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.49475783742198</v>
+        <v>44.87115455384301</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.49658124489535</v>
+        <v>26.7091428119759</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.49617122154665</v>
+        <v>25.23063850283193</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.49622730497176</v>
+        <v>26.53253892291639</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.49618654864535</v>
+        <v>24.20704448952653</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.49585777341582</v>
+        <v>27.42145327716361</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.49642772141309</v>
+        <v>35.57671544108385</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.49596084257481</v>
+        <v>37.54778095357437</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.49595962540042</v>
+        <v>40.55330707405719</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.49590907003124</v>
+        <v>37.77125487859683</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.49559487497606</v>
+        <v>48.51100272641976</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.49662360026656</v>
+        <v>33.66775151063501</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.49624368244295</v>
+        <v>35.4295772404239</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.4962360419571</v>
+        <v>38.39098861996337</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.49612922542996</v>
+        <v>35.19607178268328</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.49587229796828</v>
+        <v>47.07483040186278</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.49685462724392</v>
+        <v>29.33385544353968</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.49652299881258</v>
+        <v>29.65231838513945</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.4965232324219</v>
+        <v>31.42474808407623</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.49648450063404</v>
+        <v>28.31451085232809</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.49625436757478</v>
+        <v>40.0837367873364</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.49516980523482</v>
+        <v>25.76190654625533</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.49519173123524</v>
+        <v>27.16184108007509</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.4951255452973</v>
+        <v>23.38292722367441</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.49561375365085</v>
+        <v>27.71963154275341</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.49520117309664</v>
+        <v>26.07274764238833</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.49523757858821</v>
+        <v>27.45385039054286</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.49518809311252</v>
+        <v>23.55447908332036</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.49507233885817</v>
+        <v>52.88777842651383</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.49507774218466</v>
+        <v>58.05162329523614</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.49500366465738</v>
+        <v>52.90129254046204</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.49552059211801</v>
+        <v>54.71057279716868</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.49471624963017</v>
+        <v>60.9462135526039</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.4947381467288</v>
+        <v>66.18330063740869</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.49465801703347</v>
+        <v>61.68503327408717</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.49519830692083</v>
+        <v>51.19607776237787</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.49518875676292</v>
+        <v>56.28898239807293</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.49513096244483</v>
+        <v>50.62952716377467</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.49568871332518</v>
+        <v>53.42360574974626</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.49507501172617</v>
+        <v>59.40272614961867</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.49504894561742</v>
+        <v>64.57545711323309</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.49500765123441</v>
+        <v>59.64298693905789</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.49572305279578</v>
+        <v>41.96621193694283</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.49572328609553</v>
+        <v>44.77738515516326</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.49567040038931</v>
+        <v>40.24053067058547</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.49607717348667</v>
+        <v>45.09829330120005</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.49549662599172</v>
+        <v>48.48402787595023</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.49549758796714</v>
+        <v>51.32580023924992</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.49543656487618</v>
+        <v>47.78114625575357</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.49716191841929</v>
+        <v>25.65593283230327</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.49695573677121</v>
+        <v>24.69235538287635</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.49695520813099</v>
+        <v>24.83527061662176</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.49693351042828</v>
+        <v>23.74882929674644</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.49667797166975</v>
+        <v>26.66185339920915</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.49703332185006</v>
+        <v>31.09174313902401</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.4967709544947</v>
+        <v>31.90172101025072</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.49676959204822</v>
+        <v>32.38977079601558</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.49672104804815</v>
+        <v>31.50010631392198</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.49652440351536</v>
+        <v>39.18309200947913</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.4970429172919</v>
+        <v>31.77294485494658</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.49677621959266</v>
+        <v>32.76441293511873</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.49677646114792</v>
+        <v>33.30582758582624</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.49674420232159</v>
+        <v>32.51922892229106</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.49654869419399</v>
+        <v>39.30509652531341</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.49727411523835</v>
+        <v>31.77043735906747</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.49709655888719</v>
+        <v>32.59560292437519</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.49709652527383</v>
+        <v>32.98814039041257</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.49707764733965</v>
+        <v>32.63952216349388</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.49691628444121</v>
+        <v>35.12977520017424</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.49621912754992</v>
+        <v>26.20357211118407</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.49621862248295</v>
+        <v>26.05628746903271</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.49617883638775</v>
+        <v>24.84954077555194</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.49651692091702</v>
+        <v>26.64868017912494</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.49608032324013</v>
+        <v>26.14066642430087</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.49608045872499</v>
+        <v>26.01473968083789</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.49603826022808</v>
+        <v>24.7162015718592</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.49602419106527</v>
+        <v>41.94804898860095</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.49602199721564</v>
+        <v>42.62074415807999</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.49597763116505</v>
+        <v>42.43977331013932</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.49637318264382</v>
+        <v>40.07402966386277</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.49588977428209</v>
+        <v>43.08331704586121</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.49588858830737</v>
+        <v>43.84853982532302</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.49583571512438</v>
+        <v>43.89454820156116</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.49622505885583</v>
+        <v>42.11226383990346</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.49621808967349</v>
+        <v>42.81278715773286</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.49617580773974</v>
+        <v>42.69438041343059</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.49644522995289</v>
+        <v>40.16607649718746</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.49597794648681</v>
+        <v>43.21965983584458</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.49597819215348</v>
+        <v>44.00747018988705</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.49592940396188</v>
+        <v>44.11489011565718</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.49657113853411</v>
+        <v>36.72239259959962</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.49657027496912</v>
+        <v>37.22857760508481</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.49653812605496</v>
+        <v>37.00741950324603</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.49679519341728</v>
+        <v>35.09357756603117</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.49645140450637</v>
+        <v>36.64343450083504</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.49645075551155</v>
+        <v>37.12367998400573</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.49641566118402</v>
+        <v>36.95827019583091</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.49654564775685</v>
+        <v>23.83142263975364</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.49612446109133</v>
+        <v>21.60317918999794</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.49612301260611</v>
+        <v>23.11075034314054</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.49608100493405</v>
+        <v>19.89643547881017</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.49576291534817</v>
+        <v>25.74644468040612</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.49635625047759</v>
+        <v>32.69275593763836</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.49587245472972</v>
+        <v>33.95053715281226</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.49568613420328</v>
+        <v>37.49056821656644</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.4956283071579</v>
+        <v>33.17148848346147</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.49537590565453</v>
+        <v>46.98457239625679</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.49629870761148</v>
+        <v>30.76859419389777</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.49577480976895</v>
+        <v>31.87635980222616</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.49577824567361</v>
+        <v>35.34617371098781</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.49572014221504</v>
+        <v>30.62779784475937</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.49547660089144</v>
+        <v>45.3580094162214</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.49675689866422</v>
+        <v>27.54972354460892</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.49639707736621</v>
+        <v>27.33240002564924</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.49639703795181</v>
+        <v>29.32657302348493</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.49636294997289</v>
+        <v>25.19261084963401</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.49609660538214</v>
+        <v>38.5928590527138</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.4951814279108</v>
+        <v>23.479559355342</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.49517730577996</v>
+        <v>25.37169648048446</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.49511825276357</v>
+        <v>20.55332042262061</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.49565014458746</v>
+        <v>26.99061568259003</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.49493608182767</v>
+        <v>24.89623893054417</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.49448821365884</v>
+        <v>26.76529061113469</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.49440036104185</v>
+        <v>22.0082691263995</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.49422162294044</v>
+        <v>50.97821675374739</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.49422019860812</v>
+        <v>57.05929383959923</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.49412819295521</v>
+        <v>49.6374688254078</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.49491819792324</v>
+        <v>54.67770151383048</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.49392920574333</v>
+        <v>60.94994630271059</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.49393307183182</v>
+        <v>67.11137827370945</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.49382833306582</v>
+        <v>60.66098308236793</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.49447141894504</v>
+        <v>49.05670332714447</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.49446822213955</v>
+        <v>55.05984346573254</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.49442496735743</v>
+        <v>47.08925896430964</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.49505426116982</v>
+        <v>53.08031803169276</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.49410210009662</v>
+        <v>59.03834657827576</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.49410137962368</v>
+        <v>65.12645639422388</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.49400291798775</v>
+        <v>58.20392180167716</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.49556414789287</v>
+        <v>39.92942336995704</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.49556673744208</v>
+        <v>43.24520201095281</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.49550228954329</v>
+        <v>37.2487267868233</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.49600834888197</v>
+        <v>44.83067825789372</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.49540039310453</v>
+        <v>48.04971589405817</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.49539163947821</v>
+        <v>51.41892114786973</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.49532787905116</v>
+        <v>46.59003647606897</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.4964934514337</v>
+        <v>24.92396738760283</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.49603597706044</v>
+        <v>22.94487198742985</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.49603608657574</v>
+        <v>24.27585528576268</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.4959900923805</v>
+        <v>21.54651781410712</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.49566992891392</v>
+        <v>25.63925118170898</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.49632957678753</v>
+        <v>31.00220638485696</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.49582788770714</v>
+        <v>31.89044504243893</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.49584170510648</v>
+        <v>34.87102831699985</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.49579358818184</v>
+        <v>31.08196273423965</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.49538943654279</v>
+        <v>46.10650335150068</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.49645349173629</v>
+        <v>29.02312329690293</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.49603541546502</v>
+        <v>29.70800159782901</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.49602825004316</v>
+        <v>32.62998115070159</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.49598954076649</v>
+        <v>28.44342741711117</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.4956276514762</v>
+        <v>44.6043018940414</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.49675676157115</v>
+        <v>26.88983117319368</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.49639510029261</v>
+        <v>26.59837718757005</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.49639524925716</v>
+        <v>28.37378194049899</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.496358341145</v>
+        <v>24.64794105917931</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.49610390219347</v>
+        <v>38.44912866256008</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.4949985724605</v>
+        <v>23.40693404309956</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.49500484026839</v>
+        <v>24.95178464484842</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.49495863218231</v>
+        <v>20.64080819822177</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.49560512843458</v>
+        <v>26.46109865176762</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.49491004357907</v>
+        <v>24.33978997806062</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.49498360265272</v>
+        <v>25.86232717124934</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.4949904018622</v>
+        <v>21.55729896373644</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.49464170175023</v>
+        <v>49.89581922990673</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.49462505978016</v>
+        <v>55.30519925388829</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.49448385037967</v>
+        <v>49.06214434191941</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.49520904129218</v>
+        <v>53.2161897600442</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.4943393840947</v>
+        <v>59.09186037916686</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.49433968989537</v>
+        <v>64.58492742354748</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.49424803321104</v>
+        <v>59.183815428356</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.49486701860632</v>
+        <v>48.11394033088209</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.49488691977005</v>
+        <v>53.44257391772602</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>29.49481374908261</v>
+        <v>46.66807659626525</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>29.49546602946956</v>
+        <v>51.80915781542715</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>29.49469605222021</v>
+        <v>57.39796357248594</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>29.49465382012824</v>
+        <v>62.81823829897461</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.49394956029181</v>
+        <v>56.96405491943582</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.49555422833487</v>
+        <v>39.84240716896687</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>29.49554895535332</v>
+        <v>42.75268123999129</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>29.49549676074074</v>
+        <v>37.52346978023554</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>29.49597791234388</v>
+        <v>44.12754135685735</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>29.49537083815614</v>
+        <v>47.21793021349443</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>29.49536999316859</v>
+        <v>50.18169974463525</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.49530179342086</v>
+        <v>46.07490479086145</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>29.49711629743866</v>
+        <v>25.61075185015379</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>29.49688354589178</v>
+        <v>24.63892180006476</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.49688371903173</v>
+        <v>24.77596730645691</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>29.49685968931104</v>
+        <v>23.68582805506741</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>29.49668145298273</v>
+        <v>26.557593355891</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>29.49702700397356</v>
+        <v>31.01886666286681</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.49675959971485</v>
+        <v>31.8063085365111</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.49669350619996</v>
+        <v>32.28162294671201</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>29.49666386131149</v>
+        <v>31.38924809249764</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.49648958348397</v>
+        <v>38.92185750482133</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>29.49700498870197</v>
+        <v>31.71738386654149</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>29.49672643822149</v>
+        <v>32.68907998824011</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>29.49672782835458</v>
+        <v>33.21820516744047</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>29.49669836675805</v>
+        <v>32.43287529045558</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>29.49657568775852</v>
+        <v>39.05980956577002</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.49725872273537</v>
+        <v>31.76228929627242</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.49707268867763</v>
+        <v>32.57965006643073</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>29.49707266525101</v>
+        <v>32.96579998890887</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.49704855774237</v>
+        <v>32.62303389538049</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>29.49690214911673</v>
+        <v>34.99416893636411</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>29.4962244893607</v>
+        <v>26.07893742014145</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>29.49622549346078</v>
+        <v>25.92403194727301</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.49618354292616</v>
+        <v>24.70883028012103</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>29.49650355851179</v>
+        <v>26.53744664104138</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.49605365630379</v>
+        <v>26.00704214432809</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.49616851893228</v>
+        <v>25.87346165825072</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.4961259994791</v>
+        <v>24.56669129772359</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.49603510368896</v>
+        <v>41.62203236121961</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>29.49603532927335</v>
+        <v>42.27149071267052</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>29.49598989008345</v>
+        <v>42.06452158358674</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>29.49639067434323</v>
+        <v>39.81552094163266</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>29.49590984124075</v>
+        <v>42.76133930806618</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>29.49591728583162</v>
+        <v>43.50407570326273</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>29.4958834399451</v>
+        <v>43.52775738176732</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>29.4960336506835</v>
+        <v>41.80558862250869</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.49603118190632</v>
+        <v>42.48322252344649</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.49608514969262</v>
+        <v>42.34297448462974</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>29.49641723755715</v>
+        <v>39.91972689008932</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>29.49592820393722</v>
+        <v>42.91246636185018</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.49592790803446</v>
+        <v>43.67802775939062</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.49587978280394</v>
+        <v>43.76669243157371</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>29.49659156003728</v>
+        <v>36.55448260844703</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>29.49659281962696</v>
+        <v>37.04640678555068</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.49656896136803</v>
+        <v>36.8190338959847</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>29.49681656839343</v>
+        <v>34.94218028380367</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>29.49647786682105</v>
+        <v>36.45552848054024</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>29.49647799943051</v>
+        <v>36.92114676705966</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.49644440156708</v>
+        <v>36.74620057115863</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.49626017697628</v>
+        <v>23.31530365582401</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.49573153828135</v>
+        <v>20.79304382960967</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.49573581037306</v>
+        <v>22.44854374350624</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>29.49567974835024</v>
+        <v>19.01105732160068</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.49544944295702</v>
+        <v>26.08270327689367</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>29.49598490790722</v>
+        <v>30.14612155045679</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>29.49557024983662</v>
+        <v>30.99439977343376</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>29.49557460404784</v>
+        <v>34.63866019424275</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>29.49552334514974</v>
+        <v>29.77957056250295</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>29.4950829716896</v>
+        <v>50.44579292365371</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>29.49614760601689</v>
+        <v>27.83877859535773</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>29.49555088524606</v>
+        <v>28.474111733777</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>29.49556446691626</v>
+        <v>32.04042591789977</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.49542278320395</v>
+        <v>26.72444180171816</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.49494101955187</v>
+        <v>48.72358772333243</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.49652409761405</v>
+        <v>25.08255725227578</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.49608029750948</v>
+        <v>24.45644360071086</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.49607945768721</v>
+        <v>26.59056274591672</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>29.49604088032827</v>
+        <v>21.78224265699541</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.49591751700138</v>
+        <v>40.68477125912694</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.49418771498863</v>
+        <v>23.70437113403279</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.49419671964744</v>
+        <v>25.7929336982119</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.49409873077643</v>
+        <v>20.68314542596499</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.49495485471308</v>
+        <v>27.52005148482254</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>29.49398318207097</v>
+        <v>25.34187232846975</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>29.49398679720268</v>
+        <v>27.39431855345964</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.49388984099994</v>
+        <v>22.40931338898341</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.49358847670343</v>
+        <v>55.20130661981816</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>29.49358679221956</v>
+        <v>61.91315606322634</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.4934831639028</v>
+        <v>54.17700396419176</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.49438491313016</v>
+        <v>58.88608364856</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>29.49348060196907</v>
+        <v>66.12093791058946</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>29.49354236753461</v>
+        <v>72.92133077011096</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>29.49344027779482</v>
+        <v>66.24717858928879</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>29.49424393323</v>
+        <v>53.15996805373388</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>29.49415737269135</v>
+        <v>59.78885075406298</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>29.4940694490146</v>
+        <v>51.43423517077336</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>29.49485166359269</v>
+        <v>57.22052548632465</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>29.49378604112242</v>
+        <v>64.1243660950352</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>29.49378992915883</v>
+        <v>70.85058749237825</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>29.49360875872565</v>
+        <v>63.64866889776534</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>29.49505231834103</v>
+        <v>42.40494705535619</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>29.49505600975861</v>
+        <v>46.09376219001506</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>29.49498655971279</v>
+        <v>39.75995128416199</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>29.49567804929845</v>
+        <v>47.78951684395759</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>29.49494419783266</v>
+        <v>51.66246878819756</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>29.49490768832243</v>
+        <v>55.43501986380767</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>29.49485537761937</v>
+        <v>50.45428827660828</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>29.49643849500323</v>
+        <v>23.83874878444236</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>29.49596000164258</v>
+        <v>21.54964534938576</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>29.49595025661062</v>
+        <v>23.14125378523552</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>29.49590509174882</v>
+        <v>19.84111730992966</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>29.49554760788887</v>
+        <v>26.05377787583407</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>29.49619138084568</v>
+        <v>32.83782289770764</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>29.49563343117679</v>
+        <v>34.2136987648385</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>29.49562938409014</v>
+        <v>37.89504429218614</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>29.49557046332973</v>
+        <v>33.48642980948795</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>29.49529745571267</v>
+        <v>49.17508989438232</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>29.49632269057777</v>
+        <v>30.74164643702393</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>29.49580939775915</v>
+        <v>31.94026094400165</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>29.49580327422188</v>
+        <v>35.54907376064433</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>29.49573272967923</v>
+        <v>30.70555585539592</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>29.49545781907815</v>
+        <v>47.4574004469671</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>29.49674850497986</v>
+        <v>27.16413588947824</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>29.4963992684038</v>
+        <v>26.92796505732462</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>29.49636945705682</v>
+        <v>29.02452480663673</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>29.49633388177881</v>
+        <v>24.67327527174777</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>29.4960870453022</v>
+        <v>39.83008060288606</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>29.49483320204361</v>
+        <v>23.78227897948547</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>29.49482969855699</v>
+        <v>25.76954582096253</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>29.49473213770676</v>
+        <v>20.80876175985747</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>29.49541772667145</v>
+        <v>27.24875142286014</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>29.49460503979935</v>
+        <v>25.13442490364435</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>29.4946661813167</v>
+        <v>27.09253267125559</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>29.49461695554417</v>
+        <v>22.18190592496738</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>29.49449853246557</v>
+        <v>53.68548018248656</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>29.49403211506856</v>
+        <v>60.11193702827562</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>29.49393519745971</v>
+        <v>52.60401420076445</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>29.49481772014744</v>
+        <v>57.14372792528465</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>29.49369178421792</v>
+        <v>64.01424115340467</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>29.49370304768154</v>
+        <v>70.52202142130281</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>29.49360075477881</v>
+        <v>63.99029697403837</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>29.49443066098581</v>
+        <v>51.65471389426945</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>29.49443415389368</v>
+        <v>57.99888296279406</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>29.49434765378257</v>
+        <v>49.90244940134207</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>29.49496861454897</v>
+        <v>55.47430494465818</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>29.49400764139066</v>
+        <v>62.01457860359137</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>29.49401188314577</v>
+        <v>68.44603982813771</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>29.49392193854719</v>
+        <v>61.40848933199554</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>29.4954976443059</v>
+        <v>41.4170507173444</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>29.49549208788423</v>
+        <v>44.92256504821181</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>29.49544791893706</v>
+        <v>38.76492252274675</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>29.49592555291855</v>
+        <v>46.35901081838324</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>29.49528529302237</v>
+        <v>49.92073873868024</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>29.49528639338787</v>
+        <v>53.48379861626198</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>29.49521899430317</v>
+        <v>48.55340474262054</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.50981212840055</v>
+        <v>17.50981212840044</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.76406261454794</v>
+        <v>24.76406261454998</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.23129293920409</v>
+        <v>30.23129293923433</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15.7474894952942</v>
+        <v>15.74748949521769</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.24170335189161</v>
+        <v>24.24170335200098</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.60124859541146</v>
+        <v>21.60124859543215</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.8555762754536</v>
+        <v>28.85557627544871</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>34.3228836894864</v>
+        <v>34.32288368947242</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19.83891042722849</v>
+        <v>19.83891042725476</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.3337276471815</v>
+        <v>28.33372764723971</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.94493456211854</v>
+        <v>23.94493456212468</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.19925766372081</v>
+        <v>31.19925766367693</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36.66658386617748</v>
+        <v>36.66658386614223</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.18257969023911</v>
+        <v>22.18257969023979</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.67771164014608</v>
+        <v>30.67771164016836</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.39271036764638</v>
+        <v>19.3927103676598</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.6469934492418</v>
+        <v>26.64699344921997</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.11426748140754</v>
+        <v>32.11426748137889</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>17.63036862491789</v>
+        <v>17.63036862495245</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.12492865865626</v>
+        <v>26.12492865862852</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31.49783103941355</v>
+        <v>31.49783103942913</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.96586769205534</v>
+        <v>36.96586769204499</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.48066287532493</v>
+        <v>22.48066287537825</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32.3496188976451</v>
+        <v>32.34961889771274</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39.6062293521526</v>
+        <v>39.60622935211292</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>45.07430388909042</v>
+        <v>45.07430388907302</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>30.58927769858793</v>
+        <v>30.58927769864784</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>35.58993253328437</v>
+        <v>35.58993253329528</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>41.05804628283205</v>
+        <v>41.05804628285706</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26.57267163227608</v>
+        <v>26.57267163223106</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.4417404141209</v>
+        <v>36.44174041421378</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43.69842806630028</v>
+        <v>43.69842806626731</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49.1665797002636</v>
+        <v>49.16657970029247</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.68138367700398</v>
+        <v>34.68138367695975</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.93391194031666</v>
+        <v>37.93391194031257</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43.40204447947282</v>
+        <v>43.40204447941825</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.91663891199074</v>
+        <v>28.91663891189115</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>38.78575053726389</v>
+        <v>38.785750537391</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>46.04243360017985</v>
+        <v>46.04243360009242</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>51.5106040237962</v>
+        <v>51.51060402383202</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>37.02537708254762</v>
+        <v>37.02537708246349</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>33.38108894356186</v>
+        <v>33.38108894359824</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>38.8491693083562</v>
+        <v>38.84916930828707</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.36386906953568</v>
+        <v>24.36386906950612</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>34.23295084694327</v>
+        <v>34.23295084689529</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>41.48959389842641</v>
+        <v>41.48959389838764</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>46.95771214819207</v>
+        <v>46.9577121481383</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.47259053435825</v>
+        <v>32.47259053434222</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16.05009689492534</v>
+        <v>16.05009689503551</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>23.30427621631021</v>
+        <v>23.30427621627406</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.77162371368855</v>
+        <v>28.77162371363375</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.28751422153688</v>
+        <v>14.28751422151198</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.78167314337862</v>
+        <v>22.78167314337942</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>20.14144829591431</v>
+        <v>20.14144829595524</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27.39570481063482</v>
+        <v>27.39570481067029</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.86312939752123</v>
+        <v>32.86312939756171</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>18.37885008798152</v>
+        <v>18.37885008797197</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.87361236855487</v>
+        <v>26.8736123687229</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.48509158819583</v>
+        <v>22.48509158822163</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.73934352470054</v>
+        <v>29.73934352469156</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35.20678689975024</v>
+        <v>35.20678689972625</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20.72247667867419</v>
+        <v>20.72247667868102</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.21755368438154</v>
+        <v>29.21755368442599</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>17.93293393918783</v>
+        <v>17.93293393925218</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.18714585622162</v>
+        <v>25.18714585616648</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.65453706117092</v>
+        <v>30.65453706112352</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.1703321575891</v>
+        <v>16.17033215755579</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.66483725144509</v>
+        <v>24.66483725156514</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.03772969409114</v>
+        <v>30.03772969413775</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>35.50588353977459</v>
+        <v>35.50588353981074</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>21.02037264346815</v>
+        <v>21.02037264344188</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>30.89005345513864</v>
+        <v>30.89005345514023</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>38.1465927702816</v>
+        <v>38.14659277034924</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>43.61478450048664</v>
+        <v>43.61478450051199</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.12945222070097</v>
+        <v>29.12945222069187</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>34.1297461171546</v>
+        <v>34.12974611722531</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.59797706010364</v>
+        <v>39.59797706006385</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.1122963305843</v>
+        <v>25.11229633054007</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>34.98208990742195</v>
+        <v>34.98208990745856</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>42.23870641902228</v>
+        <v>42.23870641913017</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>47.70697524608865</v>
+        <v>47.70697524607512</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>33.22147313481265</v>
+        <v>33.2214731348114</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.47368284790424</v>
+        <v>36.47368284787366</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>41.94193257975373</v>
+        <v>41.9419325797336</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.45622093551595</v>
+        <v>27.45622093552789</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>37.32605735362451</v>
+        <v>37.32605735363576</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>44.58266927758531</v>
+        <v>44.58266927761066</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>50.05095689354347</v>
+        <v>50.05095689349606</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>35.56542386653054</v>
+        <v>35.56542386652133</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>31.92092640032059</v>
+        <v>31.92092640043348</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>37.38912395840124</v>
+        <v>37.38912395843137</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22.90351764055107</v>
+        <v>22.90351764050753</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.77332420993743</v>
+        <v>32.77332420996562</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.02989612250384</v>
+        <v>40.02989612251874</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.49813156544487</v>
+        <v>45.49813156541428</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>31.01270386335387</v>
+        <v>31.01270386342652</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.92897054445042</v>
+        <v>15.92897054451727</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23.1831575002392</v>
+        <v>23.18315750025478</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.65050526685117</v>
+        <v>28.65050526697133</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>14.1663989167272</v>
+        <v>14.16639891660635</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.66063807691036</v>
+        <v>22.66063807687807</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>20.02032539925473</v>
+        <v>20.02032539927871</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>27.27458954835755</v>
+        <v>27.27458954840121</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>32.74201440476544</v>
+        <v>32.74201440474771</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18.25773823706664</v>
+        <v>18.25773823707051</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.75258075672219</v>
+        <v>26.75258075681769</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.36397112933424</v>
+        <v>22.36397112933561</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.61823070086406</v>
+        <v>29.61823070085326</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>35.08567434498822</v>
+        <v>35.08567434492058</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>20.60136726548695</v>
+        <v>20.60136726550344</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.09652451037529</v>
+        <v>29.09652451041962</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>17.81181042530057</v>
+        <v>17.81181042541744</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.06602997713629</v>
+        <v>25.06602997704296</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30.53342145128239</v>
+        <v>30.53342145128864</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>16.04921968922362</v>
+        <v>16.0492196890914</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>24.54380502237678</v>
+        <v>24.54380502248138</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.91670225933445</v>
+        <v>29.91670225934366</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>35.3848563749814</v>
+        <v>35.38485637493012</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>20.89934861670362</v>
+        <v>20.89934861669407</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.7690535607053</v>
+        <v>30.76905356072531</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>38.02560050614615</v>
+        <v>38.02560050613774</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>43.49379250672349</v>
+        <v>43.49379250664869</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.00846336320138</v>
+        <v>29.00846336324436</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>34.0087221374563</v>
+        <v>34.00872213754702</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.47695335032519</v>
+        <v>39.47695335033087</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>24.99127575872206</v>
+        <v>24.99127575868046</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>34.86109346789432</v>
+        <v>34.86109346797879</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>42.11771761002878</v>
+        <v>42.11771761007266</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>47.58598670730647</v>
+        <v>47.58598670720438</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>33.10048773249765</v>
+        <v>33.10048773250698</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>36.35266130583877</v>
+        <v>36.35266130579659</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>41.82091130775315</v>
+        <v>41.82091130778146</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.3352028013444</v>
+        <v>27.33520280131541</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37.2050633518128</v>
+        <v>37.20506335177312</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>44.46168290615175</v>
+        <v>44.4616829062286</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>49.92997079266276</v>
+        <v>49.92997079261956</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>35.44444090163223</v>
+        <v>35.44444090165429</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>31.7999018026402</v>
+        <v>31.79990180275764</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>37.26809963085715</v>
+        <v>37.26809963084726</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>22.78249645094719</v>
+        <v>22.78249645096254</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>32.65232715283913</v>
+        <v>32.652327152843</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>39.90890669559577</v>
+        <v>39.90890669561635</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>45.37714240917514</v>
+        <v>45.37714240905338</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.89171784329859</v>
+        <v>30.89171784333054</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>12.55968845722704</v>
+        <v>12.5596884572417</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>19.81399250393327</v>
+        <v>19.81399250387188</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.28117508113759</v>
+        <v>25.28117508117488</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>10.79751445046851</v>
+        <v>10.79751445042656</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>19.29145322411854</v>
+        <v>19.29145322408852</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>16.65108912800669</v>
+        <v>16.65108912804773</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>23.9054703690273</v>
+        <v>23.90547036892225</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.3727300356751</v>
+        <v>29.37273003561326</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>14.88889958713083</v>
+        <v>14.88889958703215</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>23.38344171968505</v>
+        <v>23.38344171974314</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>18.99478058328647</v>
+        <v>18.99478058330875</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.2491572453638</v>
+        <v>26.24915724530582</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.71643570082018</v>
+        <v>31.71643570076902</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17.23257433864354</v>
+        <v>17.23257433860887</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.72743120016197</v>
+        <v>25.72743120015106</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>14.44257179726572</v>
+        <v>14.44257179722343</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>21.69690843955801</v>
+        <v>21.69690843952243</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>27.16413472488808</v>
+        <v>27.1641347248766</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.68037868159105</v>
+        <v>12.68037868159434</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>21.17466362961478</v>
+        <v>21.17466362964229</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.54763447815686</v>
+        <v>26.54763447814322</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>32.01562338320311</v>
+        <v>32.01562338319992</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>17.53056138165199</v>
+        <v>17.53056138156274</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>27.3997101778357</v>
+        <v>27.39971017783092</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.65637419453346</v>
+        <v>34.65637419450253</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.1244009870144</v>
+        <v>40.12440098703259</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.63951759751241</v>
+        <v>25.63951759748523</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.63970017243743</v>
+        <v>30.63970017253565</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.10776617436547</v>
+        <v>36.10776617436137</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>21.62253433957381</v>
+        <v>21.62253433951959</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>31.49179589625215</v>
+        <v>31.49179589627546</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>38.74853710996332</v>
+        <v>38.74853710999197</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>44.21664099906094</v>
+        <v>44.21664099905367</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.73158777832533</v>
+        <v>29.73158777830441</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>32.98368506691726</v>
+        <v>32.98368506688793</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>38.45176985857701</v>
+        <v>38.45176985856223</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.96650710677546</v>
+        <v>23.9665071067085</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>33.83581150568013</v>
+        <v>33.8358115056982</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>41.09254813047586</v>
+        <v>41.09254813042345</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>46.5606708091815</v>
+        <v>46.5606708091582</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>32.07558667030197</v>
+        <v>32.07558667017453</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.43087748135998</v>
+        <v>28.43087748137851</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>33.89891009896532</v>
+        <v>33.8989100989693</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>19.41375267529555</v>
+        <v>19.41375267523871</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.28302722707941</v>
+        <v>29.28302722710988</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.53972384021246</v>
+        <v>36.53972384023065</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>42.0077943457127</v>
+        <v>42.0077943456363</v>
       </c>
     </row>
     <row r="193">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.09348044209186</v>
+        <v>22.09348044212085</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.34767325933388</v>
+        <v>29.34767325934684</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>34.81496072064091</v>
+        <v>34.81496072062386</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>20.33100590272478</v>
+        <v>20.33100590264463</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.82611403031229</v>
+        <v>28.82611403033071</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.18490934052432</v>
+        <v>26.18490934062505</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>33.43917935154106</v>
+        <v>33.43917935153617</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>38.90654390272313</v>
+        <v>38.90654390270187</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.42241926606972</v>
+        <v>24.42241926603777</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>32.91813075542304</v>
+        <v>32.91813075545214</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.52857489016675</v>
+        <v>28.52857489016379</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>35.78284032286366</v>
+        <v>35.78284032283069</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>41.25022366238228</v>
+        <v>41.25022366231975</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.76606811246678</v>
+        <v>26.76606811243836</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.26209432734483</v>
+        <v>35.26209432742714</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>23.97638421927457</v>
+        <v>23.97638421927344</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>31.23060963136983</v>
+        <v>31.23060963133345</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.69794080116505</v>
+        <v>36.69794080115459</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.21389056980332</v>
+        <v>22.21389056975239</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.70934487469914</v>
+        <v>30.70934487473688</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.08218404560377</v>
+        <v>36.08218404557569</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.55027783674088</v>
+        <v>41.55027783666505</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>27.06492163714939</v>
+        <v>27.06492163715542</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.93382851388289</v>
+        <v>36.93382851387049</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>44.19038129495574</v>
+        <v>44.19038129495972</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>49.65851296617974</v>
+        <v>49.65851296613324</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>35.17333540168194</v>
+        <v>35.17333540165454</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>40.17427796855692</v>
+        <v>40.17427796856784</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>45.64244885714562</v>
+        <v>45.64244885713789</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>31.15692282412148</v>
+        <v>31.15692282412739</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>41.0259424579349</v>
+        <v>41.02594245799868</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>48.28257243670511</v>
+        <v>48.28257243662485</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>53.75078120494369</v>
+        <v>53.7507812049089</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>39.26543380815077</v>
+        <v>39.26543380808472</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>42.51823695501209</v>
+        <v>42.51823695498071</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>47.98642663297279</v>
+        <v>47.98642663290913</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.50086968315897</v>
+        <v>33.50086968315397</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>43.36993215921474</v>
+        <v>43.3699321592709</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>50.62655754939455</v>
+        <v>50.62655754936169</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>56.09478510691874</v>
+        <v>56.09478510693636</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>41.60940679257341</v>
+        <v>41.60940679248746</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>37.96544748711962</v>
+        <v>37.96544748710143</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>43.43358499080217</v>
+        <v>43.43358499073123</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.94813336902599</v>
+        <v>28.94813336896005</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>38.81716599904247</v>
+        <v>38.81716599901996</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>46.07375137681812</v>
+        <v>46.07375137679755</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>51.54192676109189</v>
+        <v>51.54192676104721</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>37.05665377315724</v>
+        <v>37.05665377312302</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>20.37090099724334</v>
+        <v>20.3709009972646</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.62491989345154</v>
+        <v>27.62491989343972</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>33.09221585243678</v>
+        <v>33.09221585239358</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>18.60824649407392</v>
+        <v>18.6082464940812</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.10356458661114</v>
+        <v>27.10356458667117</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.46219193085097</v>
+        <v>24.46219193086621</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.71628801950682</v>
+        <v>31.71628801953456</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>37.18366106728799</v>
+        <v>37.18366106730072</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>22.69952189410754</v>
+        <v>22.69952189410527</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>31.19544333510306</v>
+        <v>31.19544333520106</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.80578886700756</v>
+        <v>26.805788866978</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>34.059880378004</v>
+        <v>34.05988037795875</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>39.52727221360193</v>
+        <v>39.52727221357806</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.0431021294129</v>
+        <v>25.04310212932297</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>33.53933828562016</v>
+        <v>33.53933828565052</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.25372621867542</v>
+        <v>22.25372621874568</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.50777770987566</v>
+        <v>29.50777770982087</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.97511737653601</v>
+        <v>34.9751173765526</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>20.49105260719922</v>
+        <v>20.49105260712225</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.98671686847628</v>
+        <v>28.98671686846889</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>34.35946067347813</v>
+        <v>34.35946067347574</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>39.82756296537617</v>
+        <v>39.8275629653847</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.34219222262756</v>
+        <v>25.34219222265984</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.21159897150882</v>
+        <v>35.21159897151337</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>42.46797781427985</v>
+        <v>42.46797781426928</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>47.9361179849292</v>
+        <v>47.93611798495</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.45092586915509</v>
+        <v>33.45092586907414</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>38.45141661901336</v>
+        <v>38.45141661898062</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>43.91959600689144</v>
+        <v>43.91959600681095</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.43405543364259</v>
+        <v>29.43405543359621</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>39.30357494169654</v>
+        <v>39.30357494178044</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>46.56003098067369</v>
+        <v>46.56003098059729</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>52.02824824728715</v>
+        <v>52.02824824718165</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>37.5428863025045</v>
+        <v>37.54288630245323</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>40.79530698460327</v>
+        <v>40.79530698448549</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>46.26350516121762</v>
+        <v>46.26350516124309</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>31.77793367391395</v>
+        <v>31.77793367381663</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>41.64749602144595</v>
+        <v>41.64749602152587</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>48.90394747275504</v>
+        <v>48.90394747269308</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>54.37218352768549</v>
+        <v>54.3721835275817</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>39.88679066764236</v>
+        <v>39.88679066756721</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.24264555246931</v>
+        <v>36.24264555247159</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>41.71079155619658</v>
+        <v>41.71079155615475</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.22532539300392</v>
+        <v>27.22532539298937</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>37.09485789546456</v>
+        <v>37.09485789556653</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>44.35126933510493</v>
+        <v>44.35126933512312</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>49.81945321807781</v>
+        <v>49.81945321807235</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.33416568087877</v>
+        <v>35.33416568084716</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>14.62314945965296</v>
+        <v>14.62314945966331</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.87728443276002</v>
+        <v>21.87728443274092</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.34448895606648</v>
+        <v>27.34448895610332</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.86074158840735</v>
+        <v>12.86074158837461</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>21.35462030730265</v>
+        <v>21.35462030728264</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.71448987789234</v>
+        <v>18.71448987793668</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.96870204447113</v>
+        <v>25.96870204445521</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.43598365623155</v>
+        <v>31.43598365626429</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.95206647287263</v>
+        <v>16.95206647274666</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.44654854780778</v>
+        <v>25.44654854780755</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.05813064781547</v>
+        <v>21.0581306478041</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.31233823603453</v>
+        <v>28.31233823598928</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>33.77963863567358</v>
+        <v>33.77963863567881</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.29569053998001</v>
+        <v>19.29569053990827</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>27.79048734082074</v>
+        <v>27.79048734082017</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>16.50598565423685</v>
+        <v>16.50598565417796</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.76015322297259</v>
+        <v>23.76015322298327</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.2274014532302</v>
+        <v>29.22740145315948</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>14.74355867450619</v>
+        <v>14.74355867446196</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>23.23778356448055</v>
+        <v>23.2377835643913</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.61063247733672</v>
+        <v>28.61063247727976</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>34.07864333680108</v>
+        <v>34.07864333680961</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>19.59349458365206</v>
+        <v>19.59349458361704</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.46296242668485</v>
+        <v>29.46296242667485</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.71945735508224</v>
+        <v>36.71945735506803</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>42.18750610424821</v>
+        <v>42.18750610425083</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>27.70253595769192</v>
+        <v>27.70253595760733</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>32.70263791574008</v>
+        <v>32.70263791565641</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>38.17072587091162</v>
+        <v>38.17072587087479</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>23.68540728637653</v>
+        <v>23.68540728635561</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>33.55498789310765</v>
+        <v>33.55498789318246</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>40.81156001865521</v>
+        <v>40.81156001864248</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>46.27968586306135</v>
+        <v>46.27968586302497</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.79454588734371</v>
+        <v>31.79454588727425</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>35.04657212287817</v>
+        <v>35.04657212284225</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>40.51467886738079</v>
+        <v>40.51467886731167</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.02932936721744</v>
+        <v>26.02932936712012</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>35.8989528168154</v>
+        <v>35.89895281685894</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>43.15552035403097</v>
+        <v>43.15552035403449</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>48.62366498744895</v>
+        <v>48.62366498736334</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.13849409513206</v>
+        <v>34.13849409499689</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.49382833212452</v>
+        <v>30.49382833204676</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>35.96188290303247</v>
+        <v>35.96188290300155</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>21.47663872920476</v>
+        <v>21.47663872915747</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>31.34623232956768</v>
+        <v>31.34623232957689</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.60275985543105</v>
+        <v>38.60275985545105</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>44.07085231629664</v>
+        <v>44.07085231625116</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.58578674894842</v>
+        <v>29.58578674889135</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>19.03175500046997</v>
+        <v>19.03175500048986</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.28603518838703</v>
+        <v>26.28603518841886</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>31.75334908508433</v>
+        <v>31.7533490850807</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.26933206426578</v>
+        <v>17.26933206423622</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.76409930864032</v>
+        <v>25.76409930871285</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>23.1231991240726</v>
+        <v>23.12319912417878</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>30.37755650662826</v>
+        <v>30.37755650664998</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>35.84494749364445</v>
+        <v>35.84494749360432</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>21.36076065284432</v>
+        <v>21.36076065284238</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.85613126197576</v>
+        <v>29.85613126200657</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.4668872150652</v>
+        <v>25.46688721508361</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>32.72124001962176</v>
+        <v>32.72124001963336</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>38.18864979476395</v>
+        <v>38.18864979470278</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>23.70443204079437</v>
+        <v>23.70443204072889</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>32.20011737850247</v>
+        <v>32.20011737853169</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>20.91466162266284</v>
+        <v>20.9146616227281</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.16897440649269</v>
+        <v>28.16897440651998</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>33.63633201124846</v>
+        <v>33.63633201117069</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.15221957641894</v>
+        <v>19.15221957638131</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>27.64733299941589</v>
+        <v>27.64733299938815</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>33.02025671640446</v>
+        <v>33.0202567163799</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>38.4883769504511</v>
+        <v>38.48837695045292</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.00295853756007</v>
+        <v>24.00295853740785</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>33.87207763424341</v>
+        <v>33.87207763427297</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>41.12871781037531</v>
+        <v>41.12871781046103</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>46.59687592688807</v>
+        <v>46.59687592682828</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>32.11163614247268</v>
+        <v>32.11163614244914</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>37.11236586902022</v>
+        <v>37.112365869084</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>42.58056320095501</v>
+        <v>42.58056320099469</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.09497495269785</v>
+        <v>28.09497495269353</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>37.9642068094404</v>
+        <v>37.9642068095102</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>45.22092418366937</v>
+        <v>45.22092418368801</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>50.68915939760144</v>
+        <v>50.68915939758325</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>36.20374977959433</v>
+        <v>36.20374977958706</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>39.45634739953131</v>
+        <v>39.4563473994839</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>44.92456352091587</v>
+        <v>44.92456352094122</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>30.43894435642359</v>
+        <v>30.43894435642188</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>40.30821905525239</v>
+        <v>40.30821905526433</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>47.56493184061971</v>
+        <v>47.56493184054831</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>53.03318584405748</v>
+        <v>53.03318584397699</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>38.54774530885676</v>
+        <v>38.54774530884971</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.90352300521285</v>
+        <v>34.90352300520216</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>40.37168695205231</v>
+        <v>40.37168695208847</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.88617311583756</v>
+        <v>25.88617311578856</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>35.75541796793188</v>
+        <v>35.75541796792267</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>43.01209074144187</v>
+        <v>43.01209074147359</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>48.48029257086797</v>
+        <v>48.48029257075508</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>33.99495736276607</v>
+        <v>33.99495736277323</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>24.28467857607201</v>
+        <v>24.28467857602835</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.53871884727722</v>
+        <v>31.5387188472995</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>37.00610546650695</v>
+        <v>37.00610546644738</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.52187091952056</v>
+        <v>22.52187091946235</v>
       </c>
     </row>
     <row r="390">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.37603712856095</v>
+        <v>28.3760371285896</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.63015459312057</v>
+        <v>35.63015459315797</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.0976183017233</v>
+        <v>41.09761830171523</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.6132139376016</v>
+        <v>26.61321393755805</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>35.10874900328442</v>
+        <v>35.10874900327862</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>30.71964958478703</v>
+        <v>30.71964958484524</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.97376247156343</v>
+        <v>37.97376247164199</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>43.44124496787835</v>
+        <v>43.44124496787278</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.95680969285207</v>
+        <v>28.95680969277533</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>37.45265947965835</v>
+        <v>37.45265947966665</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.16753050620413</v>
+        <v>26.16753050616763</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.42160337271163</v>
+        <v>33.42160337274346</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>38.88903369980973</v>
+        <v>38.88903369981109</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.40470374076018</v>
+        <v>24.40470374075609</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.89998162311907</v>
+        <v>32.89998162314829</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>38.27272011219624</v>
+        <v>38.27272011224331</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>43.74091307185303</v>
+        <v>43.74091307177322</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.25527713281759</v>
+        <v>29.25527713274722</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>39.12464309666952</v>
+        <v>39.12464309664507</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>46.38104334520985</v>
+        <v>46.38104334523895</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>51.8492741831309</v>
+        <v>51.8492741830736</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>37.36381688074518</v>
+        <v>37.36381688072335</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>42.36474368378198</v>
+        <v>42.36474368384621</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>47.83301374062889</v>
+        <v>47.83301374065174</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>33.34720796848627</v>
+        <v>33.34720796833757</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>43.21668669368002</v>
+        <v>43.21668669368195</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>50.47316413917771</v>
+        <v>50.47316413917419</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>55.94147207400057</v>
+        <v>55.94147207400796</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>41.45584494016965</v>
+        <v>41.45584494015158</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>44.7086495757725</v>
+        <v>44.70864957578671</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>50.17693842109328</v>
+        <v>50.17693842108521</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.69110173464504</v>
+        <v>35.6911017345965</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>45.5606233008573</v>
+        <v>45.5606233008772</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>52.81709615858189</v>
+        <v>52.81709615862304</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>58.28542288182133</v>
+        <v>58.28542288177017</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>43.79976483317695</v>
+        <v>43.79976483313136</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>40.15593170356387</v>
+        <v>40.15593170362219</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>45.62416837588798</v>
+        <v>45.62416837590173</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>31.13843701509496</v>
+        <v>31.1384370150205</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.00792873452282</v>
+        <v>41.00792873451554</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>48.26436158011644</v>
+        <v>48.26436158014043</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>53.73263613073256</v>
+        <v>53.73263613070925</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.2470834060564</v>
+        <v>39.24708340595124</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>11.73120750941917</v>
+        <v>11.73120750949944</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>18.98525499221286</v>
+        <v>18.98525499221627</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.45236415780199</v>
+        <v>24.45236415778721</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.968884540398118</v>
+        <v>9.968884540352757</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>18.46212418924405</v>
+        <v>18.46212418923677</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>15.82246337588164</v>
+        <v>15.82246337586094</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>23.0765880499588</v>
+        <v>23.0765880499455</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.54377430318926</v>
+        <v>28.54377430315004</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>14.06012487261956</v>
+        <v>14.06012487256329</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.55396786902908</v>
+        <v>22.55396786904761</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>18.16606428317472</v>
+        <v>18.16606428317335</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.42018437879916</v>
+        <v>25.42018437880052</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>30.88738941954626</v>
+        <v>30.88738941953489</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>16.40370907749185</v>
+        <v>16.40370907746195</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.89786679541522</v>
+        <v>24.89786679547138</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>13.61399352038894</v>
+        <v>13.61399352038019</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.86807359816533</v>
+        <v>20.86807359814328</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.33522646990071</v>
+        <v>26.3352264699687</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>11.85165144400856</v>
+        <v>11.85165144405381</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>20.34523725628425</v>
+        <v>20.34523725631335</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.71804883670019</v>
+        <v>25.71804883667495</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>31.18596432826451</v>
+        <v>31.18596432825701</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.7010833430087</v>
+        <v>16.70108334297801</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.5704585732425</v>
+        <v>26.57045857322579</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>33.8268659697933</v>
+        <v>33.82686596984423</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>39.29481935085643</v>
+        <v>39.2948193508537</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.81011696230395</v>
+        <v>24.81011696230952</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.80996971197159</v>
+        <v>29.80996971213746</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>35.27796229805303</v>
+        <v>35.2779622979656</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>20.7929114845465</v>
+        <v>20.7929114845166</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>30.66239947944826</v>
+        <v>30.66239947944315</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>37.91888407051194</v>
+        <v>37.91888407071032</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>43.38691454594029</v>
+        <v>43.38691454590584</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.90204233078954</v>
+        <v>28.90204233073235</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.15386405275594</v>
+        <v>32.15386405276912</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>37.62187542770143</v>
+        <v>37.62187542763003</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>23.13679369908847</v>
+        <v>23.13679369906482</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.00632453658228</v>
+        <v>33.00632453663322</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>40.26280453888866</v>
+        <v>40.26280453894357</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>45.73085380336569</v>
+        <v>45.73085380340014</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.2459506723534</v>
+        <v>31.24595067236613</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>27.60119450084154</v>
+        <v>27.60119450092703</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.06915370302728</v>
+        <v>33.06915370303092</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>18.58417729977158</v>
+        <v>18.58417729973884</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.45367828547854</v>
+        <v>28.45367828552129</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>35.71011827852978</v>
+        <v>35.71011827863698</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>41.17811537065406</v>
+        <v>41.17811537065622</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.69331756337045</v>
+        <v>26.69331756335169</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>15.52345086497349</v>
+        <v>15.52345086500715</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.77749935322278</v>
+        <v>22.77749935327644</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.24474656293547</v>
+        <v>28.24474656293092</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>13.76089051883504</v>
+        <v>13.76089051868213</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.25523673267265</v>
+        <v>22.25523673270665</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>19.61472040579077</v>
+        <v>19.61472040573279</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>26.86884608635979</v>
+        <v>26.86884608644187</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>32.33617038402714</v>
+        <v>32.33617038404556</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>17.8521445252327</v>
+        <v>17.85214452520723</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.34709408718539</v>
+        <v>26.34709408722427</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>21.95832159758642</v>
+        <v>21.95832159762689</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.21244270054934</v>
+        <v>29.21244270058197</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>34.67978578608121</v>
+        <v>34.67978578600743</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>20.19572901646655</v>
+        <v>20.19572901647917</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.69099329519737</v>
+        <v>28.69099329528593</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>17.40625299081865</v>
+        <v>17.40625299083207</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>24.66033407520832</v>
+        <v>24.66033407520639</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>30.12762499157067</v>
+        <v>30.12762499160511</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>15.64367353724016</v>
+        <v>15.64367353720003</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.13836591659368</v>
+        <v>24.13836591666405</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.51116241544049</v>
+        <v>29.51116241554349</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>34.97921595895322</v>
+        <v>34.9792159589298</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>20.493958531594</v>
+        <v>20.49395853163129</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>30.36355534488167</v>
+        <v>30.36355534494431</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>37.61996378121661</v>
+        <v>37.61996378123867</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>43.08805520842374</v>
+        <v>43.08805520849081</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.60297639243641</v>
+        <v>28.60297639247359</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.60309696629476</v>
+        <v>33.6030969664147</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.07122760542235</v>
+        <v>39.0712276054809</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>24.58580034814578</v>
+        <v>24.58580034814259</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>34.45550992416635</v>
+        <v>34.4555099242116</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>41.71199555566353</v>
+        <v>41.71199555578347</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>47.18016407828544</v>
+        <v>47.18016407829624</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>32.69491543421158</v>
+        <v>32.69491543423295</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>35.94699158956179</v>
+        <v>35.9469915896491</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>41.41514101762165</v>
+        <v>41.41514101763939</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.92968284609118</v>
+        <v>26.92968284605173</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.7994352617285</v>
+        <v>36.79943526174465</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>44.05591630540916</v>
+        <v>44.05591630552148</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>49.52410361691376</v>
+        <v>49.52410361693195</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.0388240569895</v>
+        <v>35.0388240570369</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.39432419732317</v>
+        <v>31.39432419741048</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.86242145232133</v>
+        <v>36.86242145235362</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.3770686055134</v>
+        <v>22.37706860555319</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>32.24679117315829</v>
+        <v>32.24679117323718</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>39.50323220647398</v>
+        <v>39.50323220653947</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>44.97136734581046</v>
+        <v>44.97136734583775</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.48619310958805</v>
+        <v>30.48619310957816</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>12.6748473263582</v>
+        <v>12.6748473263549</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>19.92894225965132</v>
+        <v>19.92894225959504</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.39611738926227</v>
+        <v>25.396117389216</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>10.91247616142824</v>
+        <v>10.91247616147463</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>19.40597427652029</v>
+        <v>19.40597427652075</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.76610974141193</v>
+        <v>16.76610974145798</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.02028186645033</v>
+        <v>24.02028186639633</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.48753408422148</v>
+        <v>29.4875340842607</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>15.0037230430287</v>
+        <v>15.00372304303688</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.49782450621195</v>
+        <v>23.49782450618126</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>19.10971501083567</v>
+        <v>19.10971501079372</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.36388255809176</v>
+        <v>26.36388255809164</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>31.83115356334453</v>
+        <v>31.83115356329439</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>17.34731161099058</v>
+        <v>17.34731161101082</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.84172779507061</v>
+        <v>25.84172779504162</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.55764027560646</v>
+        <v>14.55764027554109</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.8117678042911</v>
+        <v>21.81176780431975</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>27.27898664084774</v>
+        <v>27.27898664082864</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>12.79525000381615</v>
+        <v>12.7952500038307</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.28909428369026</v>
+        <v>21.28909428372698</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.66194639516301</v>
+        <v>26.66194639514334</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>32.12992785986457</v>
+        <v>32.12992785982398</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>17.64488524730815</v>
+        <v>17.64488524735203</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>27.5144965397907</v>
+        <v>27.51449653985834</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>34.77095140701671</v>
+        <v>34.77095140704866</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>40.23897076152811</v>
+        <v>40.23897076149412</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.75410674230978</v>
+        <v>25.75410674229171</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>30.75387382153316</v>
+        <v>30.75387382152156</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>36.22193238144622</v>
+        <v>36.22193238142553</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.73671993932454</v>
+        <v>21.73671993928793</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>31.6064439966366</v>
+        <v>31.60644399667684</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>38.86297605969277</v>
+        <v>38.8629760596947</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>44.33107250935838</v>
+        <v>44.33107250932939</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.84603866234671</v>
+        <v>29.84603866236183</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.09777252499329</v>
+        <v>33.09777252508174</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>38.56584987380269</v>
+        <v>38.5658498738061</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.08060651724749</v>
+        <v>24.08060651715858</v>
       </c>
     </row>
     <row r="567">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>41.20690089069605</v>
+        <v>41.20690089073425</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>46.67501612891193</v>
+        <v>46.67501612887965</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.1899513664638</v>
+        <v>32.18995136639468</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.54509900017548</v>
+        <v>28.54509900026052</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.01312417599912</v>
+        <v>34.01312417605597</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.5279861443462</v>
+        <v>19.52798614431175</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.39772319290115</v>
+        <v>29.39772319295788</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.65421065744398</v>
+        <v>36.65421065742306</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.1222737236409</v>
+        <v>42.12227372361271</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>27.63731428452185</v>
+        <v>27.63731428446</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>9.145238930110519</v>
+        <v>9.145238930132461</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>16.39923967020662</v>
+        <v>16.39923967018377</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.86626668041493</v>
+        <v>21.86626668041937</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>7.383030274732175</v>
+        <v>7.38303027468886</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>15.87633087343535</v>
+        <v>15.87633087341943</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>13.23639315202753</v>
+        <v>13.23639315202378</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.49047108249352</v>
+        <v>20.49047108254809</v>
       </c>
     </row>
     <row r="585">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>11.47416896413621</v>
+        <v>11.47416896409232</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.96807289661843</v>
+        <v>19.96807289659035</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>15.57995406625117</v>
+        <v>15.57995406631779</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.83402741899364</v>
+        <v>22.83402741901615</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.30115030274011</v>
+        <v>28.30115030269804</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>13.81771317684082</v>
+        <v>13.81771317679444</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.31193182357311</v>
+        <v>22.31193182357391</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.02798061882812</v>
+        <v>11.02798061881914</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>18.28201395391001</v>
+        <v>18.28201395394309</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>23.74908467007675</v>
+        <v>23.74908467011165</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>9.265752857486302</v>
+        <v>9.265752857609879</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>17.75939961247162</v>
+        <v>17.75939961247242</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>23.13220875934043</v>
+        <v>23.13220875933326</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.60004208727208</v>
+        <v>28.60004208724855</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>14.11540432274502</v>
+        <v>14.11540432267499</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.9849197809673</v>
+        <v>23.98491978096719</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>31.24128040129666</v>
+        <v>31.2412804013028</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>36.70915162004179</v>
+        <v>36.70915162003747</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.22469243563183</v>
+        <v>22.22469243561717</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.22402797757958</v>
+        <v>27.22402797762437</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.69193839902472</v>
+        <v>32.69193839907543</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>18.20713080944848</v>
+        <v>18.20713080942893</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.07675903094595</v>
+        <v>28.07675903098551</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.33319684479103</v>
+        <v>35.33319684481206</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>40.80114515710149</v>
+        <v>40.80114515715481</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.3165161488986</v>
+        <v>26.31651614889814</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.56788231923566</v>
+        <v>29.56788231918848</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>35.03581152941298</v>
+        <v>35.03581152936944</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>20.55097302582966</v>
+        <v>20.55097302574178</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.42064408671571</v>
+        <v>30.42064408665648</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>37.67707731270231</v>
+        <v>37.67707731268082</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>43.14504441310193</v>
+        <v>43.14504441311</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.66038449011354</v>
+        <v>28.66038449005158</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.01531009572251</v>
+        <v>25.01531009577571</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.48318713409459</v>
+        <v>30.48318713406958</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>15.99845395309593</v>
+        <v>15.99845395302578</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.86809516488996</v>
+        <v>25.86809516491463</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>33.1244883816138</v>
+        <v>33.12448838163915</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>38.5924033109185</v>
+        <v>38.59240331086382</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.10784870928115</v>
+        <v>24.10784870924079</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>15.29753244637756</v>
+        <v>15.29753244644111</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.5518660150234</v>
+        <v>22.55186601508798</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.01913466607278</v>
+        <v>28.01913466604732</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>13.53523081509696</v>
+        <v>13.53523081514198</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.029178419774</v>
+        <v>22.02917841982834</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.38899125172032</v>
+        <v>19.38899125179013</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.64340201432084</v>
+        <v>26.64340201433891</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.11074775578369</v>
+        <v>32.11074775576175</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.62667408497363</v>
+        <v>17.62667408500443</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.12122505692686</v>
+        <v>26.1212250570086</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>21.73269988417463</v>
+        <v>21.73269988417486</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.98710606865599</v>
+        <v>28.98710606854753</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>34.45447059827031</v>
+        <v>34.45447059823461</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.97036601365052</v>
+        <v>19.97036601359595</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.46523171896798</v>
+        <v>28.4652317189681</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>17.18043814204635</v>
+        <v>17.1804381420534</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.43480430582282</v>
+        <v>24.43480430579553</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.90211666493066</v>
+        <v>29.90211666491474</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.41811740054414</v>
+        <v>15.41811740046286</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>23.91241118439292</v>
+        <v>23.91241118439428</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.28538921321821</v>
+        <v>29.28538921316455</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>34.75346420088569</v>
+        <v>34.75346420085476</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>20.26815896476047</v>
+        <v>20.26815896468464</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>30.13735145999818</v>
+        <v>30.13735146006048</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.39404502344179</v>
+        <v>37.39404502345839</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.86215789745712</v>
+        <v>42.86215789742279</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.37703128173849</v>
+        <v>28.37703128169859</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.37751304924576</v>
+        <v>33.37751304919495</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.84566513464132</v>
+        <v>38.84566513462461</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.36019006337916</v>
+        <v>24.36019006335847</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.22949532024406</v>
+        <v>34.229495320232</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>41.48626608140093</v>
+        <v>41.48626608136864</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>46.95445605332306</v>
+        <v>46.95445605334852</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>32.46915960404</v>
+        <v>32.46915960395269</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>35.72151512515121</v>
+        <v>35.72151512510199</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.1896860003185</v>
+        <v>41.18968600035841</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.70418001186261</v>
+        <v>26.70418001181725</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.57352811222894</v>
+        <v>36.57352811223724</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>43.83029428463512</v>
+        <v>43.83029428463102</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>49.29850304623029</v>
+        <v>49.29850304620074</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.81317567838575</v>
+        <v>34.81317567834232</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>31.16865457518965</v>
+        <v>31.16865457513167</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>36.63677327556992</v>
+        <v>36.63677327556606</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>22.15137261622284</v>
+        <v>22.15137261616475</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>32.0206908689179</v>
+        <v>32.02069086891233</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>39.27741702903019</v>
+        <v>39.27741702907646</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>44.74557361665735</v>
+        <v>44.74557361662268</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>30.26035157681202</v>
+        <v>30.26035157677553</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>13.92085362359911</v>
+        <v>13.92085362365198</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>21.17489047551988</v>
+        <v>21.17489047542598</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.64206526912666</v>
+        <v>26.64206526916736</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>12.15841009406985</v>
+        <v>12.15841009406075</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>20.65189158806096</v>
+        <v>20.65189158808495</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>18.01210909395344</v>
+        <v>18.01210909397561</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.26622313733118</v>
+        <v>25.26622313732026</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.73347501882484</v>
+        <v>30.73347501880847</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>16.24965003073261</v>
+        <v>16.24965003071078</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.74373487028198</v>
+        <v>24.74373487036577</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>20.35570372927976</v>
+        <v>20.3557037292402</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>27.6098131946036</v>
+        <v>27.60981319455983</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>33.07708386388767</v>
+        <v>33.07708386393257</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>18.59322796467894</v>
+        <v>18.59322796459641</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.0876275237821</v>
+        <v>27.08762752377482</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>15.80364229205419</v>
+        <v>15.80364229202599</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>23.05771173901691</v>
+        <v>23.05771173896404</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.52493023940839</v>
+        <v>28.52493023940009</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>14.04117965528952</v>
+        <v>14.04117965525587</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>22.53500731277519</v>
+        <v>22.53500731278622</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.90780561974112</v>
+        <v>27.90780561976829</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>33.37578674211569</v>
+        <v>33.37578674207374</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>18.89073019481397</v>
+        <v>18.89073019473382</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.76019083984091</v>
+        <v>28.7601908398126</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.01658762192427</v>
+        <v>36.01658762205763</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>41.48460663143432</v>
+        <v>41.4846066314749</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.9997286863602</v>
+        <v>26.9997286863278</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>31.99972609751275</v>
+        <v>31.99972609747693</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>37.46778431519751</v>
+        <v>37.46778431517124</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>22.9825579396544</v>
+        <v>22.98255793962882</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>32.85213134773302</v>
+        <v>32.85213134780032</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.10860532487301</v>
+        <v>40.10860532483242</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>45.57670142934082</v>
+        <v>45.5767014293307</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>31.09165365738285</v>
+        <v>31.09165365739035</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>34.34361416629964</v>
+        <v>34.34361416625303</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.81169117250148</v>
+        <v>39.81169117250671</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.32643388253667</v>
+        <v>25.32643388250939</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.19605013205013</v>
+        <v>35.19605013212858</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>42.45251952092327</v>
+        <v>42.45251952094544</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>47.92063441392817</v>
+        <v>47.92063441392942</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>33.43555572636593</v>
+        <v>33.43555572628999</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.79095394174182</v>
+        <v>29.79095394167622</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>35.25897877499791</v>
+        <v>35.25897877499962</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>20.77382680968368</v>
+        <v>20.77382680966754</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>30.64341320949928</v>
+        <v>30.64341320955021</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>37.89984258810513</v>
+        <v>37.89984258804931</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>43.3679053091429</v>
+        <v>43.36790530913392</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.88293194479469</v>
+        <v>28.88293194476934</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.04125765469895</v>
+        <v>25.04125765476375</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.29550930686334</v>
+        <v>32.29550930680649</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>37.76291337655699</v>
+        <v>37.76291337656791</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.27863640882539</v>
+        <v>23.27863640879799</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>31.77355382247425</v>
+        <v>31.77355382253337</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.13275598259601</v>
+        <v>29.13275598259532</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.38708483001189</v>
+        <v>36.38708483008556</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>41.85456599041824</v>
+        <v>41.85456599046235</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>27.37011920132614</v>
+        <v>27.37011920131466</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.86563998531837</v>
+        <v>35.86563998537044</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.47644531336847</v>
+        <v>31.47644531334698</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>38.73076958231992</v>
+        <v>38.7307695822907</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>44.1982695313916</v>
+        <v>44.19826953144879</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.71379182921647</v>
+        <v>29.71379182916781</v>
       </c>
     </row>
     <row r="736">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.92419001373265</v>
+        <v>26.92419001369195</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.17847426229709</v>
+        <v>34.17847426226594</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.64592204051623</v>
+        <v>39.64592204051054</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.16154965809245</v>
+        <v>25.16154965807358</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>33.65681325295499</v>
+        <v>33.65681325295067</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>39.02968270417013</v>
+        <v>39.02968270421015</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>44.49789311487929</v>
+        <v>44.4978931148802</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.01221475134038</v>
+        <v>30.01221475134538</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>39.88121215203581</v>
+        <v>39.88121215208345</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>47.13782380772683</v>
+        <v>47.13782380781289</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>52.60607209749698</v>
+        <v>52.6060720975844</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>38.12057237789487</v>
+        <v>38.12057237784576</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>43.12184606553036</v>
+        <v>43.12184606554003</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>48.59013357472931</v>
+        <v>48.59013357476944</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>34.1042853748768</v>
+        <v>34.10428537478903</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>43.97339553491032</v>
+        <v>43.97339553499434</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>51.2300843890721</v>
+        <v>51.23008438912599</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>56.69840977651485</v>
+        <v>56.69840977650053</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>42.21274022201841</v>
+        <v>42.21274022203467</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.4658288387043</v>
+        <v>45.46582883865962</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.93413513751445</v>
+        <v>50.93413513745885</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.44825602097855</v>
+        <v>36.44825602082791</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.31740902398964</v>
+        <v>46.31740902408184</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>53.57409328970733</v>
+        <v>53.57409328970279</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>59.04243746672172</v>
+        <v>59.04243746673173</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>44.55673699507362</v>
+        <v>44.55673699502996</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>40.91297473252452</v>
+        <v>40.91297473244767</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>46.38122885648671</v>
+        <v>46.38122885653401</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>31.89545506897106</v>
+        <v>31.89545506887772</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>41.76457822531383</v>
+        <v>41.76457822535748</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>49.02122247865863</v>
+        <v>49.0212224786077</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>54.48951448155266</v>
+        <v>54.48951448158404</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>40.00391933741459</v>
+        <v>40.00391933737036</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>19.57630506186991</v>
+        <v>19.57630506185252</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.83045638306158</v>
+        <v>26.83045638304919</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>32.29763418591394</v>
+        <v>32.29763418585698</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>17.81397118487542</v>
+        <v>17.8139711848221</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>26.30836919969944</v>
+        <v>26.3083691997481</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>23.66769339081817</v>
+        <v>23.66769339081089</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>30.92192190468746</v>
+        <v>30.921921904711</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.38917679657131</v>
+        <v>36.38917679657119</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>21.90534397915657</v>
+        <v>21.90534397919465</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.40034534812902</v>
+        <v>30.40034534819041</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.0113457014602</v>
+        <v>26.01134570144542</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.26556963680538</v>
+        <v>33.2655696367748</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>38.73284331700303</v>
+        <v>38.73284331698473</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.24897958657608</v>
+        <v>24.24897958650355</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.74429567973404</v>
+        <v>32.7442956798384</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>21.45918923371472</v>
+        <v>21.45918923376145</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.71337314926314</v>
+        <v>28.71337314933579</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.18059465982152</v>
+        <v>34.18059465983323</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>19.69683624693449</v>
+        <v>19.69683624686526</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.19158043457788</v>
+        <v>28.19158043467986</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>33.56439769843588</v>
+        <v>33.56439769852422</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>39.03238181733856</v>
+        <v>39.03238181730229</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.54731746406334</v>
+        <v>24.5473174639675</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.41604979238527</v>
+        <v>34.41604979242642</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>41.67256105234664</v>
+        <v>41.67256105235062</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>47.14058305326525</v>
+        <v>47.14058305324922</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.65569732699568</v>
+        <v>32.65569732691928</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>37.65645104415093</v>
+        <v>37.65645104418662</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.12451225936378</v>
+        <v>43.12451225933445</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.63927807413576</v>
+        <v>28.63927807409176</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>38.50812315945224</v>
+        <v>38.50812315951261</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>45.7647116157549</v>
+        <v>45.76471161576991</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>51.23281071245619</v>
+        <v>51.23281071240434</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.74775515619605</v>
+        <v>36.7477551561774</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>40.00039679025544</v>
+        <v>40.00039679021519</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>45.4684767945288</v>
+        <v>45.46847679443216</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.98321169262682</v>
+        <v>30.98321169254246</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>40.85209962018543</v>
+        <v>40.8520996201653</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>48.10868348776047</v>
+        <v>48.10868348771318</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>53.57680137360911</v>
+        <v>53.57680137357728</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>39.09171489990798</v>
+        <v>39.09171489985978</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.44764152975439</v>
+        <v>35.44764152976997</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>40.91566936118524</v>
+        <v>40.91566936115443</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.43050958620121</v>
+        <v>26.43050958611401</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.2993676674031</v>
+        <v>36.29936766736672</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>43.55591152311105</v>
+        <v>43.55591152311878</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>49.02397723662649</v>
+        <v>49.02397723659921</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>34.53899608828762</v>
+        <v>34.53899608815347</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>17.00505876669252</v>
+        <v>17.00505876677631</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.25934360744658</v>
+        <v>24.25934360751786</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.72671818388688</v>
+        <v>29.72671818391724</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>15.24252865326902</v>
+        <v>15.24252865332177</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.73673792350588</v>
+        <v>23.73673792351725</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>21.09649568551732</v>
+        <v>21.0964956855379</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.35085772100127</v>
+        <v>28.35085772102412</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.81830938781958</v>
+        <v>33.8183093878388</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>19.33395003687566</v>
+        <v>19.3339500368228</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>27.8287626760257</v>
+        <v>27.8287626760423</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.44018174010194</v>
+        <v>23.44018174017095</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.69453919701483</v>
+        <v>30.69453919700392</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.16200965212285</v>
+        <v>36.16200965208328</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>21.677619389072</v>
+        <v>21.67761938908553</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>30.17274675860143</v>
+        <v>30.17274675862678</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>18.88794090265425</v>
+        <v>18.8879409026356</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.14225833990396</v>
+        <v>26.14225833992169</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>31.60967662403437</v>
+        <v>31.60967662398754</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>17.12539168012053</v>
+        <v>17.12539168011632</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.61994712822253</v>
+        <v>25.61994712828563</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>30.99290000367536</v>
+        <v>30.99290000372117</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.46108093131751</v>
+        <v>36.46108093127511</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>21.97548998779974</v>
+        <v>21.97548998780429</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>31.84501752088398</v>
+        <v>31.84501752091411</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.10166237140744</v>
+        <v>39.10166237147304</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>44.5698811845639</v>
+        <v>44.56988118457129</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.08446886266325</v>
+        <v>30.08446886266507</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.0850019550435</v>
+        <v>35.08500195506316</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.5532599805356</v>
+        <v>40.55325998054526</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.06749920199855</v>
+        <v>26.06749920199423</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>35.93713949936388</v>
+        <v>35.93713949940401</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>43.19386154829637</v>
+        <v>43.1938615483099</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>48.66215745879346</v>
+        <v>48.66215745878425</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>34.17657530332976</v>
+        <v>34.17657530330395</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>37.42898145193136</v>
+        <v>37.42898145194603</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>42.89725826693554</v>
+        <v>42.89725826693474</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.41146657288256</v>
+        <v>28.41146657285413</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>38.28114971289837</v>
+        <v>38.28114971292975</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>45.53786717301683</v>
+        <v>45.53786717300444</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>51.00618187306101</v>
+        <v>51.00618187302861</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>36.52056880111435</v>
+        <v>36.52056880114573</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>32.87614180656989</v>
+        <v>32.87614180656637</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>38.34436644703443</v>
+        <v>38.34436644707456</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>23.85868008139063</v>
+        <v>23.85868008132571</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>33.72833337224132</v>
+        <v>33.7283333722868</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>40.98501082063457</v>
+        <v>40.98501082066424</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>46.45327334666526</v>
+        <v>46.45327334667856</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>31.96776560207014</v>
+        <v>31.96776560212653</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>14.71153262043914</v>
+        <v>14.71153262044858</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>21.96569402234162</v>
+        <v>21.96569402230967</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>27.43283156574433</v>
+        <v>27.4328315657665</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>12.94927368032587</v>
+        <v>12.94927368028995</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>21.44318459682519</v>
+        <v>21.44318459684758</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>18.80289521351495</v>
+        <v>18.80289521355258</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.05713380831527</v>
+        <v>26.057133808318</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>31.52434844041433</v>
+        <v>31.52434844044025</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>17.04062073881972</v>
+        <v>17.04062073878152</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.53513501046781</v>
+        <v>25.5351350105558</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.14655031702922</v>
+        <v>21.14655031706537</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.40078433300335</v>
+        <v>28.40078433294014</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>33.86801775314792</v>
+        <v>33.86801775313155</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>19.38425913849234</v>
+        <v>19.38425913846846</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.87908813671028</v>
+        <v>27.87908813670857</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>16.59439078785034</v>
+        <v>16.59439078786523</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>23.84858478457978</v>
+        <v>23.84858478461411</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.31576603529562</v>
+        <v>29.31576603534087</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>14.83211273915334</v>
+        <v>14.8321127390508</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>23.32636982673604</v>
+        <v>23.3263698267224</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.69922317679505</v>
+        <v>28.69922317679517</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>34.16716704172281</v>
+        <v>34.16716704179431</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>19.68220779534967</v>
+        <v>19.68220779536263</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.55121479308731</v>
+        <v>29.55121479311778</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.80773613008661</v>
+        <v>36.80773613008604</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>42.27571788218121</v>
+        <v>42.27571788220884</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>27.79093724967164</v>
+        <v>27.79093724962662</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>32.79125078759741</v>
+        <v>32.79125078766323</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>38.2592717484488</v>
+        <v>38.25927174847824</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>23.77414267013047</v>
+        <v>23.77414267006749</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>33.64326242907454</v>
+        <v>33.64326242915025</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>40.89986096207782</v>
+        <v>40.89986096207464</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>46.36791980967315</v>
+        <v>46.36791980973864</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>31.88296934749702</v>
+        <v>31.88296934743745</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>35.1351993279559</v>
+        <v>35.13519932795647</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>40.6032390781079</v>
+        <v>40.60323907804617</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.11807908361449</v>
+        <v>26.11807908353945</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.98724168492153</v>
+        <v>35.98724168495109</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>43.24383562927245</v>
+        <v>43.24383562925063</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>48.71191326591192</v>
+        <v>48.71191326596285</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>34.2269318863721</v>
+        <v>34.22693188636835</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.58244100346134</v>
+        <v>30.58244100347737</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.05042858013873</v>
+        <v>36.05042858012702</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>21.56537391325208</v>
+        <v>21.56537391313021</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>31.43450666598597</v>
+        <v>31.43450666600189</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>38.69106059911509</v>
+        <v>38.69106059912419</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>44.15908606314078</v>
+        <v>44.15908606313441</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.67421000945297</v>
+        <v>29.67421000943797</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.90929405734029</v>
+        <v>17.9092940573562</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.16344748551456</v>
+        <v>25.16344748549342</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.63058745102036</v>
+        <v>30.63058745098057</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>16.14702712388522</v>
+        <v>16.14702712381735</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>24.64110996128887</v>
+        <v>24.64110996127739</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.00067277894903</v>
+        <v>22.00067277898121</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.25490339967417</v>
+        <v>29.25490339969975</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>34.7221204538654</v>
+        <v>34.72212045382913</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>20.23839031045919</v>
+        <v>20.23839031041031</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.73307650094297</v>
+        <v>28.73307650100868</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>24.34432571065498</v>
+        <v>24.34432571059336</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>31.59855175272686</v>
+        <v>31.59855175269469</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>37.06578759527146</v>
+        <v>37.0657875951547</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>22.58202653841114</v>
+        <v>22.58202653835475</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.07702745415919</v>
+        <v>31.07702745408154</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>19.79217112142784</v>
+        <v>19.7921711214533</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>27.04635714403561</v>
+        <v>27.04635714398331</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>32.51354081666354</v>
+        <v>32.51354081663216</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>18.02988507756517</v>
+        <v>18.02988507748956</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.52431408711085</v>
+        <v>26.524314087137</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>31.89714056251558</v>
+        <v>31.89714056246488</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>37.36508684066293</v>
+        <v>37.36508684063223</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>22.88012516774598</v>
+        <v>22.88012516772416</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>32.74883697909685</v>
+        <v>32.74883697905342</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>40.00535033983478</v>
+        <v>40.00535033987184</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>45.47333450132363</v>
+        <v>45.47333450127975</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>30.98855145237065</v>
+        <v>30.98855145231017</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>35.98918429934339</v>
+        <v>35.9891842993385</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>41.45720767336071</v>
+        <v>41.4572076734013</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>26.9720761690162</v>
+        <v>26.97207616898767</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.84090073763072</v>
+        <v>36.84090073759877</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>44.09749129450178</v>
+        <v>44.097491294536</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>49.56555255118077</v>
+        <v>49.56555255109312</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>35.08059967278793</v>
+        <v>35.08059967266799</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>38.33313066621339</v>
+        <v>38.33313066622249</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>43.80117282991831</v>
+        <v>43.80117282992195</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>29.31601040902718</v>
+        <v>29.31601040900126</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>39.1848778200024</v>
+        <v>39.18487781993873</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>46.44146378782649</v>
+        <v>46.44146378780387</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>51.90954383404484</v>
+        <v>51.90954383400857</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.42456003807992</v>
+        <v>37.4245600379751</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.78037728454503</v>
+        <v>33.78037728456981</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.24836727472258</v>
+        <v>39.24836727473145</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>24.76331018071916</v>
+        <v>24.76331018067914</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>34.63214774544782</v>
+        <v>34.63214774545374</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>41.88869370185388</v>
+        <v>41.88869370184217</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>47.35672157538933</v>
+        <v>47.3567215753808</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>32.87184310486079</v>
+        <v>32.87184310479508</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>20.44858277637958</v>
+        <v>20.44858277638754</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>27.70271599114529</v>
+        <v>27.70271599117838</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.16999626950964</v>
+        <v>33.16999626949907</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>18.68602825301322</v>
+        <v>18.68602825292522</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.18043047145819</v>
+        <v>27.18043047154118</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>24.53999264070354</v>
+        <v>24.53999264068376</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>31.79420304954523</v>
+        <v>31.79420304961446</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>37.26156041732851</v>
+        <v>37.26156041733863</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>22.77742258241666</v>
+        <v>22.77742258239051</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.27242816157515</v>
+        <v>31.27242816157537</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>26.88364992930725</v>
+        <v>26.88364992934136</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>34.13785576009265</v>
+        <v>34.13785576004445</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>39.60523191598556</v>
+        <v>39.60523191592235</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.12106316842177</v>
+        <v>25.12106316839653</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>33.61638347508007</v>
+        <v>33.6163834750803</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>22.33146534144715</v>
+        <v>22.33146534146148</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.58563115183098</v>
+        <v>29.58563115184792</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.05295513795319</v>
+        <v>35.05295513788873</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>20.5688917085538</v>
+        <v>20.56889170850446</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>29.06364010266624</v>
+        <v>29.06364010271239</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>34.43644089262263</v>
+        <v>34.43644089261251</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>39.90452750529995</v>
+        <v>39.90452750530757</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>25.41915810498336</v>
+        <v>25.41915810488116</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>35.28838956704784</v>
+        <v>35.28838956708468</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>42.54488275519101</v>
+        <v>42.54488275516589</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>48.01300725239356</v>
+        <v>48.01300725234206</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>33.52781647592896</v>
+        <v>33.52781647586927</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>38.52851578095989</v>
+        <v>38.52851578101094</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>43.99667949060769</v>
+        <v>43.99667949051276</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.51114025717665</v>
+        <v>29.51114025710036</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>39.38048447975918</v>
+        <v>39.38048447976907</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>46.6370548654311</v>
+        <v>46.63705486548294</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>52.10525645918666</v>
+        <v>52.10525645917166</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>37.61989585120831</v>
+        <v>37.61989585109747</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>40.87246650920191</v>
+        <v>40.87246650911233</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>46.3406490080762</v>
+        <v>46.34064900805755</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>31.85507885863366</v>
+        <v>31.85507885852713</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>41.72446592381927</v>
+        <v>41.7244659238104</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>48.98103172093057</v>
+        <v>48.98103172091568</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>54.44925210400085</v>
+        <v>54.44925210393866</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>39.96386057895917</v>
+        <v>39.96386057887982</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>36.31968312103437</v>
+        <v>36.31968312109338</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>41.78781344635765</v>
+        <v>41.7878134463448</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>27.30234862394867</v>
+        <v>27.30234862387728</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>37.1717058419754</v>
+        <v>37.17170584195698</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>44.42823162683341</v>
+        <v>44.42823162688468</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>49.8963998368629</v>
+        <v>49.8963998368878</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>35.41111363800452</v>
+        <v>35.41111363790618</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>18.47716120745066</v>
+        <v>18.4771612074477</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>25.73143839490048</v>
+        <v>25.7314383949223</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>31.1988244700159</v>
+        <v>31.19882446995633</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>16.71459992366693</v>
+        <v>16.71459992352881</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>25.20894488326656</v>
+        <v>25.20894488335058</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>22.56861404972393</v>
+        <v>22.56861404977156</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>29.82296843150324</v>
+        <v>29.82296843157975</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>35.29043159714855</v>
+        <v>35.29043159718414</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>20.80603723011212</v>
+        <v>20.80603723012224</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>29.30098555968653</v>
+        <v>29.30098555975941</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>24.91230297208439</v>
+        <v>24.91230297210189</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>32.16665277582617</v>
+        <v>32.16665277582992</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>37.63413472949607</v>
+        <v>37.63413472945616</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>23.14970945030349</v>
+        <v>23.14970945022197</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>31.64497251070578</v>
+        <v>31.64497251075307</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>20.36005406723326</v>
+        <v>20.36005406723576</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>27.61436385049923</v>
+        <v>27.6143638505397</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>33.08179363386684</v>
+        <v>33.08179363379408</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>18.59747367386082</v>
+        <v>18.59747367392402</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>27.09216481262673</v>
+        <v>27.09216481261013</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>32.46509930919832</v>
+        <v>32.46509930922493</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>37.93329173390897</v>
+        <v>37.93329173390693</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>23.44766577675251</v>
+        <v>23.44766577667771</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>33.31710005739491</v>
+        <v>33.31710005747335</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>40.57373725559206</v>
+        <v>40.57373725553056</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>46.04196756425996</v>
+        <v>46.04196756418618</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>31.55652023362235</v>
+        <v>31.55652023362132</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>36.55721718450629</v>
+        <v>36.55721718446468</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>42.02548670775992</v>
+        <v>42.02548670766193</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>27.53969091456862</v>
+        <v>27.5396909145867</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>37.40923795888865</v>
+        <v>37.40923795893629</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>44.66595235518413</v>
+        <v>44.66595235518425</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>50.13425976174746</v>
+        <v>50.13425976175849</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>35.64864259655555</v>
+        <v>35.64864259653326</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>38.90119954997864</v>
+        <v>38.90119954996977</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>44.36948786260929</v>
+        <v>44.36948786256404</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>29.88366115341104</v>
+        <v>29.88366115332577</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>39.75325104115667</v>
+        <v>39.75325104110256</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>47.00996084834834</v>
+        <v>47.00996084833061</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>52.47828704447421</v>
+        <v>52.47828704447103</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>37.99263896243714</v>
+        <v>37.99263896231345</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>34.34835183678889</v>
+        <v>34.34835183679265</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>39.81658797454567</v>
+        <v>39.81658797448939</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>25.33086659403058</v>
+        <v>25.33086659401148</v>
       </c>
     </row>
     <row r="1054">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>42.45709642815281</v>
+        <v>42.45709642818191</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>47.92537045014014</v>
+        <v>47.9253704500692</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>33.43982769594437</v>
+        <v>33.43982769587252</v>
       </c>
     </row>
   </sheetData>
